--- a/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.81820776018458</v>
+        <v>15.81820776018449</v>
       </c>
       <c r="C2">
-        <v>10.05536939875109</v>
+        <v>10.05536939875101</v>
       </c>
       <c r="D2">
-        <v>9.903370259639765</v>
+        <v>9.903370259639672</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.45274935740876</v>
+        <v>63.4527493574085</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.91870550601883</v>
+        <v>13.91870550601872</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>29.96061555304653</v>
+        <v>29.96061555304649</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.64022033662883</v>
+        <v>14.64022033662884</v>
       </c>
       <c r="C3">
-        <v>9.358476889914796</v>
+        <v>9.358476889914687</v>
       </c>
       <c r="D3">
-        <v>9.398286491443434</v>
+        <v>9.398286491443416</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.45174275419568</v>
+        <v>59.45174275419573</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.93997417399873</v>
+        <v>12.93997417399871</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.58653215923561</v>
+        <v>27.58653215923558</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88539524487639</v>
+        <v>13.88539524487642</v>
       </c>
       <c r="C4">
-        <v>8.914942224595533</v>
+        <v>8.914942224595595</v>
       </c>
       <c r="D4">
-        <v>9.082328488232243</v>
+        <v>9.082328488232232</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.92192626544059</v>
+        <v>56.92192626544128</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.31386774797636</v>
+        <v>12.31386774797639</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.08758326328722</v>
+        <v>26.08758326328727</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.56960250484916</v>
+        <v>13.56960250484915</v>
       </c>
       <c r="C5">
-        <v>8.730089475189157</v>
+        <v>8.730089475189532</v>
       </c>
       <c r="D5">
-        <v>8.952063383180919</v>
+        <v>8.952063383180938</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.87237040798757</v>
+        <v>55.87237040798802</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.05218165791156</v>
+        <v>12.05218165791161</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.46512202127559</v>
+        <v>25.46512202127573</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.51666310898351</v>
+        <v>13.51666310898348</v>
       </c>
       <c r="C6">
-        <v>8.699141962313142</v>
+        <v>8.69914196231332</v>
       </c>
       <c r="D6">
-        <v>8.930341160377097</v>
+        <v>8.930341160377035</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.6969652319133</v>
+        <v>55.69696523191337</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.36102764100992</v>
+        <v>25.36102764100985</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.88116986862594</v>
+        <v>13.88116986862617</v>
       </c>
       <c r="C7">
-        <v>8.912466087579546</v>
+        <v>8.912466087579599</v>
       </c>
       <c r="D7">
-        <v>9.080577832563197</v>
+        <v>9.080577832563222</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.90784715641414</v>
+        <v>56.90784715641466</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.31036531518584</v>
+        <v>12.31036531518602</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.07923712423483</v>
+        <v>26.07923712423487</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.41841456054392</v>
+        <v>15.41841456054376</v>
       </c>
       <c r="C8">
-        <v>9.818213207296807</v>
+        <v>9.81821320729687</v>
       </c>
       <c r="D8">
-        <v>9.730392054013642</v>
+        <v>9.730392054013436</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.0881666554365</v>
+        <v>62.08816665543604</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.58632290819848</v>
+        <v>13.58632290819842</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.14976934410902</v>
+        <v>29.14976934410905</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.1963506171916</v>
+        <v>18.19635061719158</v>
       </c>
       <c r="C9">
-        <v>11.47966066459217</v>
+        <v>11.47966066459237</v>
       </c>
       <c r="D9">
-        <v>10.962335016322</v>
+        <v>10.96233501632197</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.69199147655731</v>
+        <v>71.69199147655725</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.91461606495781</v>
+        <v>34.91461606495774</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.11533018916253</v>
+        <v>20.11533018916246</v>
       </c>
       <c r="C10">
-        <v>12.64607198886088</v>
+        <v>12.64607198886072</v>
       </c>
       <c r="D10">
-        <v>11.85087470537272</v>
+        <v>11.85087470537261</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.47182371556426</v>
+        <v>78.47182371556379</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.50406170204243</v>
+        <v>17.50406170204239</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>39.12586520740246</v>
+        <v>39.12586520740243</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.96804604505656</v>
+        <v>20.9680460450565</v>
       </c>
       <c r="C11">
-        <v>13.16935084885093</v>
+        <v>13.16935084885063</v>
       </c>
       <c r="D11">
-        <v>12.25495050598423</v>
+        <v>12.25495050598412</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.51926072124806</v>
+        <v>81.51926072124751</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.21815151374298</v>
+        <v>18.21815151374282</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>41.08121161737152</v>
+        <v>41.08121161737138</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.28868909176315</v>
+        <v>21.28868909176326</v>
       </c>
       <c r="C12">
-        <v>13.36691251509069</v>
+        <v>13.36691251509051</v>
       </c>
       <c r="D12">
-        <v>12.4083789632898</v>
+        <v>12.40837896328993</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.67081713124878</v>
+        <v>82.67081713124946</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18.48687934744544</v>
+        <v>18.48687934744545</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.83301968723023</v>
+        <v>41.83301968723037</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.21972157587263</v>
+        <v>21.21972157587264</v>
       </c>
       <c r="C13">
-        <v>13.32438204714526</v>
+        <v>13.3243820471453</v>
       </c>
       <c r="D13">
-        <v>12.37530835787834</v>
+        <v>12.37530835787833</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.42286102216342</v>
+        <v>82.42286102216332</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.42906871199443</v>
+        <v>18.42906871199447</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.67048314656758</v>
+        <v>41.67048314656765</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.99446664240408</v>
+        <v>20.99446664240398</v>
       </c>
       <c r="C14">
-        <v>13.18561325821266</v>
+        <v>13.18561325821246</v>
       </c>
       <c r="D14">
-        <v>12.26756181425036</v>
+        <v>12.2675618142503</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.61402895664075</v>
+        <v>81.61402895664047</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.24029003484969</v>
+        <v>18.2402900348496</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.14279479252338</v>
+        <v>41.14279479252335</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.85621860985652</v>
+        <v>20.85621860985673</v>
       </c>
       <c r="C15">
-        <v>13.10055150264951</v>
+        <v>13.10055150264959</v>
       </c>
       <c r="D15">
-        <v>12.20163336006552</v>
+        <v>12.20163336006558</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.11837954888527</v>
+        <v>81.11837954888568</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.12445698627632</v>
+        <v>18.12445698627642</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.82125736655998</v>
+        <v>40.82125736655993</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.05924824991645</v>
+        <v>20.05924824991639</v>
       </c>
       <c r="C16">
-        <v>12.61176433803801</v>
+        <v>12.61176433803758</v>
       </c>
       <c r="D16">
-        <v>11.82449834954076</v>
+        <v>11.82449834954058</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.27214829989173</v>
+        <v>78.27214829989127</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17.45712610642202</v>
+        <v>17.45712610642192</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.99931115130928</v>
+        <v>38.99931115130919</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.56556875633338</v>
+        <v>19.56556875633345</v>
       </c>
       <c r="C17">
-        <v>12.31033215924018</v>
+        <v>12.31033215924026</v>
       </c>
       <c r="D17">
-        <v>11.59336776670932</v>
+        <v>11.59336776670925</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.51839950757505</v>
+        <v>76.51839950757467</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17.04411749979773</v>
+        <v>17.04411749979769</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.89514208206482</v>
+        <v>37.8951420820648</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.27966675526246</v>
+        <v>19.27966675526243</v>
       </c>
       <c r="C18">
-        <v>12.13623419609158</v>
+        <v>12.13623419609137</v>
       </c>
       <c r="D18">
-        <v>11.46038264223771</v>
+        <v>11.46038264223769</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.50601454711732</v>
+        <v>75.50601454711719</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.80506414746857</v>
+        <v>16.80506414746855</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.26334750114113</v>
+        <v>37.26334750114123</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.1825126622751</v>
+        <v>19.18251266227531</v>
       </c>
       <c r="C19">
-        <v>12.07715101779803</v>
+        <v>12.07715101779841</v>
       </c>
       <c r="D19">
-        <v>11.41533766697083</v>
+        <v>11.41533766697102</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.16253569150442</v>
+        <v>75.16253569150527</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.72385188466822</v>
+        <v>16.72385188466841</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.04985951574352</v>
+        <v>37.04985951574351</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.61831940485634</v>
+        <v>19.61831940485621</v>
       </c>
       <c r="C20">
-        <v>12.34249182415145</v>
+        <v>12.34249182415131</v>
       </c>
       <c r="D20">
-        <v>11.61797401368882</v>
+        <v>11.61797401368887</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.70545187052834</v>
+        <v>76.70545187052829</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>17.08823476311785</v>
+        <v>17.08823476311772</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>38.01230764158572</v>
+        <v>38.01230764158564</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.06068497555265</v>
+        <v>21.06068497555264</v>
       </c>
       <c r="C21">
-        <v>13.2263849447871</v>
+        <v>13.22638494478702</v>
       </c>
       <c r="D21">
-        <v>12.29919410998041</v>
+        <v>12.29919410998047</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.85164105465036</v>
+        <v>81.85164105465026</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.29742447771795</v>
+        <v>41.297424477718</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.99058600959003</v>
+        <v>21.99058600959004</v>
       </c>
       <c r="C22">
-        <v>13.80089470795422</v>
+        <v>13.80089470795443</v>
       </c>
       <c r="D22">
-        <v>12.74715517884784</v>
+        <v>12.74715517884786</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.20289589765621</v>
+        <v>85.20289589765623</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19.07552556785435</v>
+        <v>19.07552556785443</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.51527107628659</v>
+        <v>43.51527107628674</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.49519385825258</v>
+        <v>21.49519385825253</v>
       </c>
       <c r="C23">
-        <v>13.49437872493852</v>
+        <v>13.4943787249386</v>
       </c>
       <c r="D23">
-        <v>12.5076298775156</v>
+        <v>12.50762987751568</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.41414166933133</v>
+        <v>83.41414166933156</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>18.66000912509977</v>
+        <v>18.66000912509974</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.32252507962433</v>
+        <v>42.32252507962425</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.59447735947689</v>
+        <v>19.59447735947694</v>
       </c>
       <c r="C24">
-        <v>12.32795496680697</v>
+        <v>12.32795496680688</v>
       </c>
       <c r="D24">
-        <v>11.60684988694811</v>
+        <v>11.60684988694823</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.62089856538695</v>
+        <v>76.62089856538779</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>17.06829440070128</v>
+        <v>17.06829440070132</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.9593281181027</v>
+        <v>37.95932811810268</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.46808614820187</v>
+        <v>17.46808614820201</v>
       </c>
       <c r="C25">
-        <v>11.04101945969047</v>
+        <v>11.04101945969053</v>
       </c>
       <c r="D25">
-        <v>10.63285636010035</v>
+        <v>10.63285636010032</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.1483491698267</v>
+        <v>69.14834916982699</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.29260656782834</v>
+        <v>15.29260656782848</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.37105823557695</v>
+        <v>33.37105823557703</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.81820776018449</v>
+        <v>15.81820776018458</v>
       </c>
       <c r="C2">
-        <v>10.05536939875101</v>
+        <v>10.05536939875109</v>
       </c>
       <c r="D2">
-        <v>9.903370259639672</v>
+        <v>9.903370259639765</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.4527493574085</v>
+        <v>63.45274935740876</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -436,13 +436,13 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.91870550601872</v>
+        <v>13.91870550601883</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>29.96061555304649</v>
+        <v>29.96061555304653</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,19 +450,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.64022033662884</v>
+        <v>14.64022033662883</v>
       </c>
       <c r="C3">
-        <v>9.358476889914687</v>
+        <v>9.358476889914796</v>
       </c>
       <c r="D3">
-        <v>9.398286491443416</v>
+        <v>9.398286491443434</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.45174275419573</v>
+        <v>59.45174275419568</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -474,13 +474,13 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.93997417399871</v>
+        <v>12.93997417399873</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>27.58653215923558</v>
+        <v>27.58653215923561</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,19 +488,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88539524487642</v>
+        <v>13.88539524487639</v>
       </c>
       <c r="C4">
-        <v>8.914942224595595</v>
+        <v>8.914942224595533</v>
       </c>
       <c r="D4">
-        <v>9.082328488232232</v>
+        <v>9.082328488232243</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.92192626544128</v>
+        <v>56.92192626544059</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.31386774797639</v>
+        <v>12.31386774797636</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>26.08758326328727</v>
+        <v>26.08758326328722</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,19 +526,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.56960250484915</v>
+        <v>13.56960250484916</v>
       </c>
       <c r="C5">
-        <v>8.730089475189532</v>
+        <v>8.730089475189157</v>
       </c>
       <c r="D5">
-        <v>8.952063383180938</v>
+        <v>8.952063383180919</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.87237040798802</v>
+        <v>55.87237040798757</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.05218165791161</v>
+        <v>12.05218165791156</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>25.46512202127573</v>
+        <v>25.46512202127559</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.51666310898348</v>
+        <v>13.51666310898351</v>
       </c>
       <c r="C6">
-        <v>8.69914196231332</v>
+        <v>8.699141962313142</v>
       </c>
       <c r="D6">
-        <v>8.930341160377035</v>
+        <v>8.930341160377097</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.69696523191337</v>
+        <v>55.6969652319133</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>25.36102764100985</v>
+        <v>25.36102764100992</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,19 +602,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.88116986862617</v>
+        <v>13.88116986862594</v>
       </c>
       <c r="C7">
-        <v>8.912466087579599</v>
+        <v>8.912466087579546</v>
       </c>
       <c r="D7">
-        <v>9.080577832563222</v>
+        <v>9.080577832563197</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.90784715641466</v>
+        <v>56.90784715641414</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -626,13 +626,13 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.31036531518602</v>
+        <v>12.31036531518584</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>26.07923712423487</v>
+        <v>26.07923712423483</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,19 +640,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.41841456054376</v>
+        <v>15.41841456054392</v>
       </c>
       <c r="C8">
-        <v>9.81821320729687</v>
+        <v>9.818213207296807</v>
       </c>
       <c r="D8">
-        <v>9.730392054013436</v>
+        <v>9.730392054013642</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.08816665543604</v>
+        <v>62.0881666554365</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.58632290819842</v>
+        <v>13.58632290819848</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>29.14976934410905</v>
+        <v>29.14976934410902</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -678,19 +678,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.19635061719158</v>
+        <v>18.1963506171916</v>
       </c>
       <c r="C9">
-        <v>11.47966066459237</v>
+        <v>11.47966066459217</v>
       </c>
       <c r="D9">
-        <v>10.96233501632197</v>
+        <v>10.962335016322</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.69199147655725</v>
+        <v>71.69199147655731</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -708,7 +708,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>34.91461606495774</v>
+        <v>34.91461606495781</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -716,19 +716,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.11533018916246</v>
+        <v>20.11533018916253</v>
       </c>
       <c r="C10">
-        <v>12.64607198886072</v>
+        <v>12.64607198886088</v>
       </c>
       <c r="D10">
-        <v>11.85087470537261</v>
+        <v>11.85087470537272</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.47182371556379</v>
+        <v>78.47182371556426</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -740,13 +740,13 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.50406170204239</v>
+        <v>17.50406170204243</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>39.12586520740243</v>
+        <v>39.12586520740246</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,19 +754,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.9680460450565</v>
+        <v>20.96804604505656</v>
       </c>
       <c r="C11">
-        <v>13.16935084885063</v>
+        <v>13.16935084885093</v>
       </c>
       <c r="D11">
-        <v>12.25495050598412</v>
+        <v>12.25495050598423</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.51926072124751</v>
+        <v>81.51926072124806</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -778,13 +778,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.21815151374282</v>
+        <v>18.21815151374298</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>41.08121161737138</v>
+        <v>41.08121161737152</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,19 +792,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.28868909176326</v>
+        <v>21.28868909176315</v>
       </c>
       <c r="C12">
-        <v>13.36691251509051</v>
+        <v>13.36691251509069</v>
       </c>
       <c r="D12">
-        <v>12.40837896328993</v>
+        <v>12.4083789632898</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.67081713124946</v>
+        <v>82.67081713124878</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -816,13 +816,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18.48687934744545</v>
+        <v>18.48687934744544</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>41.83301968723037</v>
+        <v>41.83301968723023</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.21972157587264</v>
+        <v>21.21972157587263</v>
       </c>
       <c r="C13">
-        <v>13.3243820471453</v>
+        <v>13.32438204714526</v>
       </c>
       <c r="D13">
-        <v>12.37530835787833</v>
+        <v>12.37530835787834</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.42286102216332</v>
+        <v>82.42286102216342</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -854,13 +854,13 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.42906871199447</v>
+        <v>18.42906871199443</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>41.67048314656765</v>
+        <v>41.67048314656758</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,19 +868,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.99446664240398</v>
+        <v>20.99446664240408</v>
       </c>
       <c r="C14">
-        <v>13.18561325821246</v>
+        <v>13.18561325821266</v>
       </c>
       <c r="D14">
-        <v>12.2675618142503</v>
+        <v>12.26756181425036</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.61402895664047</v>
+        <v>81.61402895664075</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -892,13 +892,13 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.2402900348496</v>
+        <v>18.24029003484969</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>41.14279479252335</v>
+        <v>41.14279479252338</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,19 +906,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.85621860985673</v>
+        <v>20.85621860985652</v>
       </c>
       <c r="C15">
-        <v>13.10055150264959</v>
+        <v>13.10055150264951</v>
       </c>
       <c r="D15">
-        <v>12.20163336006558</v>
+        <v>12.20163336006552</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.11837954888568</v>
+        <v>81.11837954888527</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.12445698627642</v>
+        <v>18.12445698627632</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>40.82125736655993</v>
+        <v>40.82125736655998</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,19 +944,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.05924824991639</v>
+        <v>20.05924824991645</v>
       </c>
       <c r="C16">
-        <v>12.61176433803758</v>
+        <v>12.61176433803801</v>
       </c>
       <c r="D16">
-        <v>11.82449834954058</v>
+        <v>11.82449834954076</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.27214829989127</v>
+        <v>78.27214829989173</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17.45712610642192</v>
+        <v>17.45712610642202</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>38.99931115130919</v>
+        <v>38.99931115130928</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,19 +982,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.56556875633345</v>
+        <v>19.56556875633338</v>
       </c>
       <c r="C17">
-        <v>12.31033215924026</v>
+        <v>12.31033215924018</v>
       </c>
       <c r="D17">
-        <v>11.59336776670925</v>
+        <v>11.59336776670932</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.51839950757467</v>
+        <v>76.51839950757505</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1006,13 +1006,13 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17.04411749979769</v>
+        <v>17.04411749979773</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>37.8951420820648</v>
+        <v>37.89514208206482</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,19 +1020,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.27966675526243</v>
+        <v>19.27966675526246</v>
       </c>
       <c r="C18">
-        <v>12.13623419609137</v>
+        <v>12.13623419609158</v>
       </c>
       <c r="D18">
-        <v>11.46038264223769</v>
+        <v>11.46038264223771</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.50601454711719</v>
+        <v>75.50601454711732</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1044,13 +1044,13 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.80506414746855</v>
+        <v>16.80506414746857</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>37.26334750114123</v>
+        <v>37.26334750114113</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,19 +1058,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.18251266227531</v>
+        <v>19.1825126622751</v>
       </c>
       <c r="C19">
-        <v>12.07715101779841</v>
+        <v>12.07715101779803</v>
       </c>
       <c r="D19">
-        <v>11.41533766697102</v>
+        <v>11.41533766697083</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.16253569150527</v>
+        <v>75.16253569150442</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1082,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.72385188466841</v>
+        <v>16.72385188466822</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>37.04985951574351</v>
+        <v>37.04985951574352</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.61831940485621</v>
+        <v>19.61831940485634</v>
       </c>
       <c r="C20">
-        <v>12.34249182415131</v>
+        <v>12.34249182415145</v>
       </c>
       <c r="D20">
-        <v>11.61797401368887</v>
+        <v>11.61797401368882</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.70545187052829</v>
+        <v>76.70545187052834</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1120,13 +1120,13 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>17.08823476311772</v>
+        <v>17.08823476311785</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>38.01230764158564</v>
+        <v>38.01230764158572</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,19 +1134,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.06068497555264</v>
+        <v>21.06068497555265</v>
       </c>
       <c r="C21">
-        <v>13.22638494478702</v>
+        <v>13.2263849447871</v>
       </c>
       <c r="D21">
-        <v>12.29919410998047</v>
+        <v>12.29919410998041</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.85164105465026</v>
+        <v>81.85164105465036</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1164,7 +1164,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>41.297424477718</v>
+        <v>41.29742447771795</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,19 +1172,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.99058600959004</v>
+        <v>21.99058600959003</v>
       </c>
       <c r="C22">
-        <v>13.80089470795443</v>
+        <v>13.80089470795422</v>
       </c>
       <c r="D22">
-        <v>12.74715517884786</v>
+        <v>12.74715517884784</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.20289589765623</v>
+        <v>85.20289589765621</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1196,13 +1196,13 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19.07552556785443</v>
+        <v>19.07552556785435</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>43.51527107628674</v>
+        <v>43.51527107628659</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,19 +1210,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.49519385825253</v>
+        <v>21.49519385825258</v>
       </c>
       <c r="C23">
-        <v>13.4943787249386</v>
+        <v>13.49437872493852</v>
       </c>
       <c r="D23">
-        <v>12.50762987751568</v>
+        <v>12.5076298775156</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.41414166933156</v>
+        <v>83.41414166933133</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>18.66000912509974</v>
+        <v>18.66000912509977</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>42.32252507962425</v>
+        <v>42.32252507962433</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1248,19 +1248,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.59447735947694</v>
+        <v>19.59447735947689</v>
       </c>
       <c r="C24">
-        <v>12.32795496680688</v>
+        <v>12.32795496680697</v>
       </c>
       <c r="D24">
-        <v>11.60684988694823</v>
+        <v>11.60684988694811</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.62089856538779</v>
+        <v>76.62089856538695</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1272,13 +1272,13 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>17.06829440070132</v>
+        <v>17.06829440070128</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>37.95932811810268</v>
+        <v>37.9593281181027</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,19 +1286,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.46808614820201</v>
+        <v>17.46808614820187</v>
       </c>
       <c r="C25">
-        <v>11.04101945969053</v>
+        <v>11.04101945969047</v>
       </c>
       <c r="D25">
-        <v>10.63285636010032</v>
+        <v>10.63285636010035</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.14834916982699</v>
+        <v>69.1483491698267</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1310,13 +1310,13 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.29260656782848</v>
+        <v>15.29260656782834</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>33.37105823557703</v>
+        <v>33.37105823557695</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,28 +406,31 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.81820776018458</v>
+        <v>15.67021480188911</v>
       </c>
       <c r="C2">
-        <v>10.05536939875109</v>
+        <v>9.845377906387707</v>
       </c>
       <c r="D2">
-        <v>9.903370259639765</v>
+        <v>9.978724092136638</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.45274935740876</v>
+        <v>63.52954423055336</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.060596882327935</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -436,36 +439,39 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>13.91870550601883</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>13.74170351887675</v>
       </c>
       <c r="L2">
-        <v>29.96061555304653</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>29.91541178800269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.64022033662883</v>
+        <v>14.49830319014274</v>
       </c>
       <c r="C3">
-        <v>9.358476889914796</v>
+        <v>9.149890290490402</v>
       </c>
       <c r="D3">
-        <v>9.398286491443434</v>
+        <v>9.481002672184825</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.45174275419568</v>
+        <v>59.56402958541003</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.074547714975121</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -474,36 +480,39 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>12.93997417399873</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>12.7653313700826</v>
       </c>
       <c r="L3">
-        <v>27.58653215923561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>27.54677334245856</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.88539524487639</v>
+        <v>13.74740043389017</v>
       </c>
       <c r="C4">
-        <v>8.914942224595533</v>
+        <v>8.706987208463046</v>
       </c>
       <c r="D4">
-        <v>9.082328488232243</v>
+        <v>9.169890474927001</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>56.92192626544059</v>
+        <v>57.05796287857223</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.083193272413235</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -512,36 +521,39 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>12.31386774797636</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>12.14050345436555</v>
       </c>
       <c r="L4">
-        <v>26.08758326328722</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>26.05097862250063</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.56960250484916</v>
+        <v>13.43326077480053</v>
       </c>
       <c r="C5">
-        <v>8.730089475189157</v>
+        <v>8.522330383711774</v>
       </c>
       <c r="D5">
-        <v>8.952063383180919</v>
+        <v>9.041684382395232</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>55.87237040798757</v>
+        <v>56.0186141471783</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.086743296139576</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -550,36 +562,39 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>12.05218165791156</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>11.87929354940375</v>
       </c>
       <c r="L5">
-        <v>25.46512202127559</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>25.42976989593646</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.51666310898351</v>
+        <v>13.3805993697934</v>
       </c>
       <c r="C6">
-        <v>8.699141962313142</v>
+        <v>8.49141156490947</v>
       </c>
       <c r="D6">
-        <v>8.930341160377097</v>
+        <v>9.020309202572458</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.6969652319133</v>
+        <v>55.84493685303345</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.087334582379559</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -588,36 +603,39 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>12.00832790908069</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>11.83551607457455</v>
       </c>
       <c r="L6">
-        <v>25.36102764100992</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>25.32588187619605</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.88116986862594</v>
+        <v>13.74319712146551</v>
       </c>
       <c r="C7">
-        <v>8.912466087579546</v>
+        <v>8.704513968111442</v>
       </c>
       <c r="D7">
-        <v>9.080577832563197</v>
+        <v>9.168167243891789</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>56.90784715641414</v>
+        <v>57.04401923721656</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.083241031995423</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -626,36 +644,39 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>12.31036531518584</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>12.13700762885531</v>
       </c>
       <c r="L7">
-        <v>26.07923712423483</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>26.04264949137819</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.41841456054392</v>
+        <v>15.27248059759073</v>
       </c>
       <c r="C8">
-        <v>9.818213207296807</v>
+        <v>9.608752518105652</v>
       </c>
       <c r="D8">
-        <v>9.730392054013642</v>
+        <v>9.808218739072633</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.0881666554365</v>
+        <v>62.17681525516169</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.065395015640787</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -664,36 +685,39 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>13.58632290819848</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>13.4101688782115</v>
       </c>
       <c r="L8">
-        <v>29.14976934410902</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>29.10649231491828</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.1963506171916</v>
+        <v>18.03603398616437</v>
       </c>
       <c r="C9">
-        <v>11.47966066459217</v>
+        <v>11.26547832743229</v>
       </c>
       <c r="D9">
-        <v>10.962335016322</v>
+        <v>11.02342829574663</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.69199147655731</v>
+        <v>71.70125752894435</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.030662323968057</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -702,36 +726,39 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>15.90014407470917</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>15.71716976444827</v>
       </c>
       <c r="L9">
-        <v>34.91461606495781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>34.85578555013009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>20.11533018916253</v>
+        <v>19.94475072846998</v>
       </c>
       <c r="C10">
-        <v>12.64607198886088</v>
+        <v>12.42732267599856</v>
       </c>
       <c r="D10">
-        <v>11.85087470537272</v>
+        <v>11.90080763305354</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.47182371556426</v>
+        <v>78.42854064232164</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>2.004662157803276</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -740,36 +767,39 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>17.50406170204243</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>17.31515721416704</v>
       </c>
       <c r="L10">
-        <v>39.12586520740246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>39.05208425475089</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.96804604505656</v>
+        <v>20.79274062140758</v>
       </c>
       <c r="C11">
-        <v>13.16935084885093</v>
+        <v>12.94824294014355</v>
       </c>
       <c r="D11">
-        <v>12.25495050598423</v>
+        <v>12.29993728797815</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.51926072124806</v>
+        <v>81.45258464723042</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.992532361250254</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -778,36 +808,39 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>18.21815151374298</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.02628646135719</v>
       </c>
       <c r="L11">
-        <v>41.08121161737152</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>40.99902028171969</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.28868909176315</v>
+        <v>21.11157214289512</v>
       </c>
       <c r="C12">
-        <v>13.36691251509069</v>
+        <v>13.14486437601181</v>
       </c>
       <c r="D12">
-        <v>12.4083789632898</v>
+        <v>12.4514970886241</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.67081713124878</v>
+        <v>82.59527085709666</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.987872941014205</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -816,36 +849,39 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>18.48687934744544</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.29384650302825</v>
       </c>
       <c r="L12">
-        <v>41.83301968723023</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>41.74728551613715</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.21972157587263</v>
+        <v>21.0429960076235</v>
       </c>
       <c r="C13">
-        <v>13.32438204714526</v>
+        <v>13.10253863656679</v>
       </c>
       <c r="D13">
-        <v>12.37530835787834</v>
+        <v>12.41882903490316</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.42286102216342</v>
+        <v>82.34922733270218</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.988879812084385</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -854,36 +890,39 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>18.42906871199443</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.23628963136285</v>
       </c>
       <c r="L13">
-        <v>41.67048314656758</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>41.58553076256472</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.99446664240408</v>
+        <v>20.81901271529559</v>
       </c>
       <c r="C14">
-        <v>13.18561325821266</v>
+        <v>12.96442898881615</v>
       </c>
       <c r="D14">
-        <v>12.26756181425036</v>
+        <v>12.31239487799235</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.61402895664075</v>
+        <v>81.54662396306107</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.992150509125294</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -892,36 +931,39 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>18.24029003484969</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.04832990756436</v>
       </c>
       <c r="L14">
-        <v>41.14279479252338</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>41.06032015638574</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.85621860985652</v>
+        <v>20.68154027317184</v>
       </c>
       <c r="C15">
-        <v>13.10055150264951</v>
+        <v>12.87976459558195</v>
       </c>
       <c r="D15">
-        <v>12.20163336006552</v>
+        <v>12.24727033458803</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.11837954888527</v>
+        <v>81.05478522105297</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.99414449848234</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -930,36 +972,39 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>18.12445698627632</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>17.93299208407133</v>
       </c>
       <c r="L15">
-        <v>40.82125736655998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>40.74024878431452</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>20.05924824991645</v>
+        <v>19.88897540620287</v>
       </c>
       <c r="C16">
-        <v>12.61176433803801</v>
+        <v>12.39316300571425</v>
       </c>
       <c r="D16">
-        <v>11.82449834954076</v>
+        <v>11.87475603861809</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.27214829989173</v>
+        <v>78.23039765861709</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2.005447002893152</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -968,36 +1013,39 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>17.45712610642202</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>17.268409129191</v>
       </c>
       <c r="L16">
-        <v>38.99931115130928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>38.92603816984</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.56556875633338</v>
+        <v>19.39797526402171</v>
       </c>
       <c r="C17">
-        <v>12.31033215924018</v>
+        <v>12.09299576759753</v>
       </c>
       <c r="D17">
-        <v>11.59336776670932</v>
+        <v>11.64648493753601</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.51839950757505</v>
+        <v>76.49012796198906</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.012289220460943</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1006,36 +1054,39 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>17.04411749979773</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>16.85701370440748</v>
       </c>
       <c r="L17">
-        <v>37.89514208206482</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>37.82613223760526</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.27966675526246</v>
+        <v>19.11360994938517</v>
       </c>
       <c r="C18">
-        <v>12.13623419609158</v>
+        <v>11.91959946230874</v>
       </c>
       <c r="D18">
-        <v>11.46038264223771</v>
+        <v>11.51515792495927</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.50601454711732</v>
+        <v>75.48555030365158</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.016197915320244</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1044,36 +1095,39 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>16.80506414746857</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>16.61886417682533</v>
       </c>
       <c r="L18">
-        <v>37.26334750114113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>37.19664855381343</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.1825126622751</v>
+        <v>19.01697575241949</v>
       </c>
       <c r="C19">
-        <v>12.07715101779803</v>
+        <v>11.8607495613687</v>
       </c>
       <c r="D19">
-        <v>11.41533766697083</v>
+        <v>11.47067701767856</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.16253569150442</v>
+        <v>75.14472638914515</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.017517319914599</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1082,36 +1136,39 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>16.72385188466822</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>16.53795402031405</v>
       </c>
       <c r="L19">
-        <v>37.04985951574352</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>36.98392157719666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.61831940485634</v>
+        <v>19.45044123391801</v>
       </c>
       <c r="C20">
-        <v>12.34249182415145</v>
+        <v>12.12502349727821</v>
       </c>
       <c r="D20">
-        <v>11.61797401368882</v>
+        <v>11.67078548700627</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.70545187052834</v>
+        <v>76.67574034233277</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>2.01156376788829</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1120,36 +1177,39 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>17.08823476311785</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>16.90096178239559</v>
       </c>
       <c r="L20">
-        <v>38.01230764158572</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>37.94285929034823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.06068497555265</v>
+        <v>20.88485826027505</v>
       </c>
       <c r="C21">
-        <v>13.2263849447871</v>
+        <v>13.00500841569994</v>
       </c>
       <c r="D21">
-        <v>12.29919410998041</v>
+        <v>12.34364172123574</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.85164105465036</v>
+        <v>81.78240769840171</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.99119183777447</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1158,36 +1218,39 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>18.29577956167286</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.10358024461886</v>
       </c>
       <c r="L21">
-        <v>41.29742447771795</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>41.21423316930454</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.99058600959003</v>
+        <v>21.80942707552391</v>
       </c>
       <c r="C22">
-        <v>13.80089470795422</v>
+        <v>13.57668404418071</v>
       </c>
       <c r="D22">
-        <v>12.74715517884784</v>
+        <v>12.78614998656571</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.20289589765621</v>
+        <v>85.10769728310375</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.97747563995474</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1196,36 +1259,39 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>19.07552556785435</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.8798273287223</v>
       </c>
       <c r="L22">
-        <v>43.51527107628659</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>43.42088544146333</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.49519385825258</v>
+        <v>21.31689908422503</v>
       </c>
       <c r="C23">
-        <v>13.49437872493852</v>
+        <v>13.27170934725448</v>
       </c>
       <c r="D23">
-        <v>12.5076298775156</v>
+        <v>12.54954026625377</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.41414166933133</v>
+        <v>83.33285115266912</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.984842591248241</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1234,36 +1300,39 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>18.66000912509977</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.46620787246645</v>
       </c>
       <c r="L23">
-        <v>42.32252507962433</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>42.23438127953509</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.59447735947689</v>
+        <v>19.42672790232525</v>
       </c>
       <c r="C24">
-        <v>12.32795496680697</v>
+        <v>12.11054636704596</v>
       </c>
       <c r="D24">
-        <v>11.60684988694811</v>
+        <v>11.65979952101063</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.62089856538695</v>
+        <v>76.59183786673952</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.011891821220152</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1272,36 +1341,39 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>17.06829440070128</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>16.88109798160563</v>
       </c>
       <c r="L24">
-        <v>37.9593281181027</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>37.89007844360705</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.46808614820187</v>
+        <v>17.31157142673816</v>
       </c>
       <c r="C25">
-        <v>11.04101945969047</v>
+        <v>10.82829948064068</v>
       </c>
       <c r="D25">
-        <v>10.63285636010035</v>
+        <v>10.69824702787688</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.1483491698267</v>
+        <v>69.17786459853777</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.04008834975189</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1310,13 +1382,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>15.29260656782834</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>15.11162477617069</v>
       </c>
       <c r="L25">
-        <v>33.37105823557695</v>
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>33.31685755425303</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,28 +409,34 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.67021480188911</v>
+        <v>18.65108922852264</v>
       </c>
       <c r="C2">
-        <v>9.845377906387707</v>
+        <v>12.54527428166399</v>
       </c>
       <c r="D2">
-        <v>9.978724092136638</v>
+        <v>3.766795352999287</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>63.52954423055336</v>
+        <v>35.89196785492347</v>
       </c>
       <c r="G2">
-        <v>2.060596882327935</v>
+        <v>2.048772657326381</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -442,36 +448,42 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>13.74170351887675</v>
+        <v>0</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>29.91541178800269</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>29.96791438107396</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>28.03672588488724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.49830319014274</v>
+        <v>17.37492935966741</v>
       </c>
       <c r="C3">
-        <v>9.149890290490402</v>
+        <v>11.79614613745575</v>
       </c>
       <c r="D3">
-        <v>9.481002672184825</v>
+        <v>3.804882726915641</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>59.56402958541003</v>
+        <v>33.90120062680693</v>
       </c>
       <c r="G3">
-        <v>2.074547714975121</v>
+        <v>2.059630518848991</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -483,36 +495,42 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>12.7653313700826</v>
+        <v>0</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>27.54677334245856</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>27.62458561619218</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>26.62310454488528</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.74740043389017</v>
+        <v>16.54968695358905</v>
       </c>
       <c r="C4">
-        <v>8.706987208463046</v>
+        <v>11.31337560928642</v>
       </c>
       <c r="D4">
-        <v>9.169890474927001</v>
+        <v>3.829847675548492</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>57.05796287857223</v>
+        <v>32.66208674614456</v>
       </c>
       <c r="G4">
-        <v>2.083193272413235</v>
+        <v>2.066410051354014</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -524,36 +542,42 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>12.14050345436555</v>
+        <v>0</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>26.05097862250063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>26.14055671298141</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>25.75044921770646</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.43326077480053</v>
+        <v>16.20278349840976</v>
       </c>
       <c r="C5">
-        <v>8.522330383711774</v>
+        <v>11.11090339168418</v>
       </c>
       <c r="D5">
-        <v>9.041684382395232</v>
+        <v>3.840380539080432</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>56.0186141471783</v>
+        <v>32.15319064547502</v>
       </c>
       <c r="G5">
-        <v>2.086743296139576</v>
+        <v>2.069204900496482</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -565,36 +589,42 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11.87929354940375</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>25.42976989593646</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>25.5233701828597</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>25.39384561764934</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.3805993697934</v>
+        <v>16.14453592318098</v>
       </c>
       <c r="C6">
-        <v>8.49141156490947</v>
+        <v>11.07693651660709</v>
       </c>
       <c r="D6">
-        <v>9.020309202572458</v>
+        <v>3.842150232509709</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>55.84493685303345</v>
+        <v>32.06846106788906</v>
       </c>
       <c r="G6">
-        <v>2.087334582379559</v>
+        <v>2.069671026486098</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -606,36 +636,42 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>11.83551607457455</v>
+        <v>0</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>25.32588187619605</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>25.42010777353763</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>25.33457936261563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.74319712146551</v>
+        <v>16.5450516212937</v>
       </c>
       <c r="C7">
-        <v>8.704513968111442</v>
+        <v>11.31066823331425</v>
       </c>
       <c r="D7">
-        <v>9.168167243891789</v>
+        <v>3.829988315532092</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>57.04401923721656</v>
+        <v>32.65523911659206</v>
       </c>
       <c r="G7">
-        <v>2.083241031995423</v>
+        <v>2.066447608863804</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -647,36 +683,42 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>12.13700762885531</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>26.04264949137819</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>26.1322847512832</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>25.74564362728833</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.27248059759073</v>
+        <v>18.21963754163537</v>
       </c>
       <c r="C8">
-        <v>9.608752518105652</v>
+        <v>12.29170015323179</v>
       </c>
       <c r="D8">
-        <v>9.808218739072633</v>
+        <v>3.77957551517113</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>62.17681525516169</v>
+        <v>35.20915075181617</v>
       </c>
       <c r="G8">
-        <v>2.065395015640787</v>
+        <v>2.052495461622998</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -688,36 +730,42 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>13.4101688782115</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>29.10649231491828</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>29.16862608993289</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>27.55036557081893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.03603398616437</v>
+        <v>21.17916409356652</v>
       </c>
       <c r="C9">
-        <v>11.26547832743229</v>
+        <v>14.03547680740655</v>
       </c>
       <c r="D9">
-        <v>11.02342829574663</v>
+        <v>3.695321333673999</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>71.70125752894435</v>
+        <v>40.08037534313777</v>
       </c>
       <c r="G9">
-        <v>2.030662323968057</v>
+        <v>2.025831874505705</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -729,36 +777,42 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>15.71716976444827</v>
+        <v>0</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>34.85578555013009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>34.82286200410633</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>31.04942719947908</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.94475072846998</v>
+        <v>23.16525053517446</v>
       </c>
       <c r="C10">
-        <v>12.42732267599856</v>
+        <v>15.20874613046664</v>
       </c>
       <c r="D10">
-        <v>11.90080763305354</v>
+        <v>3.645981300150774</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>78.42854064232164</v>
+        <v>43.58355950945545</v>
       </c>
       <c r="G10">
-        <v>2.004662157803276</v>
+        <v>2.006333930440748</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -770,36 +824,42 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>17.31515721416704</v>
+        <v>0</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>39.05208425475089</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>38.90026172111662</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>33.60151609920719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.79274062140758</v>
+        <v>24.0301240234285</v>
       </c>
       <c r="C11">
-        <v>12.94824294014355</v>
+        <v>15.71950988000764</v>
       </c>
       <c r="D11">
-        <v>12.29993728797815</v>
+        <v>3.627378996926299</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>81.45258464723042</v>
+        <v>45.16675602604125</v>
       </c>
       <c r="G11">
-        <v>1.992532361250254</v>
+        <v>1.997386986729902</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -811,36 +871,42 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>18.02628646135719</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>40.99902028171969</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>40.77279237804134</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>34.76293369604407</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.11157214289512</v>
+        <v>24.35227071547302</v>
       </c>
       <c r="C12">
-        <v>13.14486437601181</v>
+        <v>15.90964175917356</v>
       </c>
       <c r="D12">
-        <v>12.4514970886241</v>
+        <v>3.62101275117289</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>82.59527085709666</v>
+        <v>45.7656245032724</v>
       </c>
       <c r="G12">
-        <v>1.987872941014205</v>
+        <v>1.993977290292242</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -852,36 +918,42 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>18.29384650302825</v>
+        <v>0</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>41.74728551613715</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>41.48855450886643</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>35.20344883979224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.0429960076235</v>
+        <v>24.28312608146902</v>
       </c>
       <c r="C13">
-        <v>13.10253863656679</v>
+        <v>15.8688394675114</v>
       </c>
       <c r="D13">
-        <v>12.41882903490316</v>
+        <v>3.622351313325836</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>82.34922733270218</v>
+        <v>45.63665921442264</v>
       </c>
       <c r="G13">
-        <v>1.988879812084385</v>
+        <v>1.994712793401036</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -893,36 +965,42 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>18.23628963136285</v>
+        <v>0</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>41.58553076256472</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>41.33402336558949</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>35.10853103117001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.81901271529559</v>
+        <v>24.056733589206</v>
       </c>
       <c r="C14">
-        <v>12.96442898881615</v>
+        <v>15.73521792997369</v>
       </c>
       <c r="D14">
-        <v>12.31239487799235</v>
+        <v>3.62684081312524</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>81.54662396306107</v>
+        <v>45.21603228498273</v>
       </c>
       <c r="G14">
-        <v>1.992150509125294</v>
+        <v>1.997106974325781</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -934,36 +1012,42 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>18.04832990756436</v>
+        <v>0</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>41.06032015638574</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>40.83151578545026</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>34.79915617574595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.68154027317184</v>
+        <v>23.91736905049617</v>
       </c>
       <c r="C15">
-        <v>12.87976459558195</v>
+        <v>15.65294343489696</v>
       </c>
       <c r="D15">
-        <v>12.24727033458803</v>
+        <v>3.629683359180987</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>81.05478522105297</v>
+        <v>44.95833210799014</v>
       </c>
       <c r="G15">
-        <v>1.99414449848234</v>
+        <v>1.998570293402373</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -975,36 +1059,42 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>17.93299208407133</v>
+        <v>0</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>40.74024878431452</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>40.52473233555097</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>34.60977173110535</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.88897540620287</v>
+        <v>23.10796821636677</v>
       </c>
       <c r="C16">
-        <v>12.39316300571425</v>
+        <v>15.17490655637921</v>
       </c>
       <c r="D16">
-        <v>11.87475603861809</v>
+        <v>3.64728432384393</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>78.23039765861709</v>
+        <v>43.47994871324727</v>
       </c>
       <c r="G16">
-        <v>2.005447002893152</v>
+        <v>2.006916236974705</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1016,36 +1106,42 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>17.268409129191</v>
+        <v>0</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>38.92603816984</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>38.77856524104795</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>33.52567304274567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.39797526402171</v>
+        <v>22.60167165553774</v>
       </c>
       <c r="C17">
-        <v>12.09299576759753</v>
+        <v>14.87578481487329</v>
       </c>
       <c r="D17">
-        <v>11.64648493753601</v>
+        <v>3.659145658416421</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>76.49012796198906</v>
+        <v>42.57083714863086</v>
       </c>
       <c r="G17">
-        <v>2.012289220460943</v>
+        <v>2.012009706411136</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1057,36 +1153,42 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>16.85701370440748</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>37.82613223760526</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>37.71440589873801</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>32.86110871350382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.11360994938517</v>
+        <v>22.3068174856124</v>
       </c>
       <c r="C18">
-        <v>11.91959946230874</v>
+        <v>14.70157618242321</v>
       </c>
       <c r="D18">
-        <v>11.51515792495927</v>
+        <v>3.666320548577321</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>75.48555030365158</v>
+        <v>42.04689131804673</v>
       </c>
       <c r="G18">
-        <v>2.016197915320244</v>
+        <v>2.014932829410247</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1098,36 +1200,42 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>16.61886417682533</v>
+        <v>0</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.19664855381343</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>37.10368405847782</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>32.47885966997325</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.01697575241949</v>
+        <v>22.20635309123676</v>
       </c>
       <c r="C19">
-        <v>11.8607495613687</v>
+        <v>14.64221995401823</v>
       </c>
       <c r="D19">
-        <v>11.47067701767856</v>
+        <v>3.668807082760257</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>75.14472638914515</v>
+        <v>41.86929175893121</v>
       </c>
       <c r="G19">
-        <v>2.017517319914599</v>
+        <v>2.015921711281059</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1139,36 +1247,42 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>16.53795402031405</v>
+        <v>0</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>36.98392157719666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>36.89703256795609</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>32.34941971958747</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.45044123391801</v>
+        <v>22.65594375825843</v>
       </c>
       <c r="C20">
-        <v>12.12502349727821</v>
+        <v>14.90785035898185</v>
       </c>
       <c r="D20">
-        <v>11.67078548700627</v>
+        <v>3.657845703480655</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>76.67574034233277</v>
+        <v>42.66771714228513</v>
       </c>
       <c r="G20">
-        <v>2.01156376788829</v>
+        <v>2.011468239326428</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1180,36 +1294,42 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.90096178239559</v>
+        <v>0</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>37.94285929034823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>37.82752176933747</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>32.93184985183439</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.88485826027505</v>
+        <v>24.12337454593618</v>
       </c>
       <c r="C21">
-        <v>13.00500841569994</v>
+        <v>15.77455489983998</v>
       </c>
       <c r="D21">
-        <v>12.34364172123574</v>
+        <v>3.625502567292469</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>81.78240769840171</v>
+        <v>45.33958984335247</v>
       </c>
       <c r="G21">
-        <v>1.99119183777447</v>
+        <v>1.996404432381387</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1221,36 +1341,42 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>18.10358024461886</v>
+        <v>0</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>41.21423316930454</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>40.97889292462251</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>34.89000120835072</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.80942707552391</v>
+        <v>25.05126002841006</v>
       </c>
       <c r="C22">
-        <v>13.57668404418071</v>
+        <v>16.32184418141884</v>
       </c>
       <c r="D22">
-        <v>12.78614998656571</v>
+        <v>3.608401832955109</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>85.10769728310375</v>
+        <v>47.14395892329306</v>
       </c>
       <c r="G22">
-        <v>1.97747563995474</v>
+        <v>1.986425748457785</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1262,36 +1388,42 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>18.8798273287223</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>43.42088544146333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>43.08055663048412</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>36.17443710533894</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>21.31689908422503</v>
+        <v>24.55881841100061</v>
       </c>
       <c r="C23">
-        <v>13.27170934725448</v>
+        <v>16.0314997827353</v>
       </c>
       <c r="D23">
-        <v>12.54954026625377</v>
+        <v>3.617108439472014</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>83.33285115266912</v>
+        <v>46.15226690318407</v>
       </c>
       <c r="G23">
-        <v>1.984842591248241</v>
+        <v>1.991768093001574</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1303,36 +1435,42 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>18.46620787246645</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>42.23438127953509</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>41.95321643815981</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>35.48818985491095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.42672790232525</v>
+        <v>22.63141912112439</v>
       </c>
       <c r="C24">
-        <v>12.11054636704596</v>
+        <v>14.89336050408133</v>
       </c>
       <c r="D24">
-        <v>11.65979952101063</v>
+        <v>3.658432314331572</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>76.59183786673952</v>
+        <v>42.62392175991913</v>
       </c>
       <c r="G24">
-        <v>2.011891821220152</v>
+        <v>2.011713051973703</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1344,36 +1482,42 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.88109798160563</v>
+        <v>0</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>37.89007844360705</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>37.77637901762929</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>32.89986839532102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.31157142673816</v>
+        <v>20.41231867610101</v>
       </c>
       <c r="C25">
-        <v>10.82829948064068</v>
+        <v>13.58284062357344</v>
       </c>
       <c r="D25">
-        <v>10.69824702787688</v>
+        <v>3.716221762780583</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>69.17786459853777</v>
+        <v>38.77712482076024</v>
       </c>
       <c r="G25">
-        <v>2.04008834975189</v>
+        <v>2.033001251796264</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1385,13 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>15.11162477617069</v>
+        <v>0</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>33.31685755425303</v>
+        <v>33.315972365804</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>30.10703842295936</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.65108922852264</v>
+        <v>12.96942157025143</v>
       </c>
       <c r="C2">
-        <v>12.54527428166399</v>
+        <v>8.631013589079533</v>
       </c>
       <c r="D2">
-        <v>3.766795352999287</v>
+        <v>6.268704440735768</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.89196785492347</v>
+        <v>22.9200245197012</v>
       </c>
       <c r="G2">
-        <v>2.048772657326381</v>
+        <v>25.66299719310813</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>10.15224410141576</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>6.689879930165299</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.8861582195491</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.746624473469598</v>
       </c>
       <c r="M2">
-        <v>29.96791438107396</v>
+        <v>9.865600279752188</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.03672588488724</v>
+        <v>16.76806927854241</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.37492935966741</v>
+        <v>12.10415057032441</v>
       </c>
       <c r="C3">
-        <v>11.79614613745575</v>
+        <v>8.681787200704468</v>
       </c>
       <c r="D3">
-        <v>3.804882726915641</v>
+        <v>6.113209610998567</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>33.90120062680693</v>
+        <v>22.94812845053298</v>
       </c>
       <c r="G3">
-        <v>2.059630518848991</v>
+        <v>25.73348211772376</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>10.25087114690313</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.750567167533212</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.33801619562027</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.665101076660229</v>
       </c>
       <c r="M3">
-        <v>27.62458561619218</v>
+        <v>9.541075021072023</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.62310454488528</v>
+        <v>16.90402868263256</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.54968695358905</v>
+        <v>11.54087423706004</v>
       </c>
       <c r="C4">
-        <v>11.31337560928642</v>
+        <v>8.714743076030821</v>
       </c>
       <c r="D4">
-        <v>3.829847675548492</v>
+        <v>6.018003416094485</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>32.66208674614456</v>
+        <v>22.98157105517184</v>
       </c>
       <c r="G4">
-        <v>2.066410051354014</v>
+        <v>25.80024535695086</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10.31613541720085</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.789242569838414</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.985586438966305</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.616670187048686</v>
       </c>
       <c r="M4">
-        <v>26.14055671298141</v>
+        <v>9.338837004219711</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.75044921770646</v>
+        <v>16.99820239979159</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.20278349840976</v>
+        <v>11.30324949234456</v>
       </c>
       <c r="C5">
-        <v>11.11090339168418</v>
+        <v>8.728618108582205</v>
       </c>
       <c r="D5">
-        <v>3.840380539080432</v>
+        <v>5.979326720121132</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>32.15319064547502</v>
+        <v>22.99914648261122</v>
       </c>
       <c r="G5">
-        <v>2.069204900496482</v>
+        <v>25.8331301448951</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>10.34388818784926</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.80536110567432</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.838065234068335</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.597356766259916</v>
       </c>
       <c r="M5">
-        <v>25.5233701828597</v>
+        <v>9.255792330777009</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>25.39384561764934</v>
+        <v>17.03917982723178</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.14453592318098</v>
+        <v>11.26462706691407</v>
       </c>
       <c r="C6">
-        <v>11.07693651660709</v>
+        <v>8.730948869887236</v>
       </c>
       <c r="D6">
-        <v>3.842150232509709</v>
+        <v>5.972913351494701</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>32.06846106788906</v>
+        <v>23.00229966177202</v>
       </c>
       <c r="G6">
-        <v>2.069671026486098</v>
+        <v>25.83892694536132</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>10.3485656545402</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.80805927525778</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.813336611974307</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.594175702529748</v>
       </c>
       <c r="M6">
-        <v>25.42010777353763</v>
+        <v>9.241968341142554</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>25.33457936261563</v>
+        <v>17.04613867839692</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.5450516212937</v>
+        <v>11.53770233449647</v>
       </c>
       <c r="C7">
-        <v>11.31066823331425</v>
+        <v>8.714928399925874</v>
       </c>
       <c r="D7">
-        <v>3.829988315532092</v>
+        <v>6.017481248951527</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>32.65523911659206</v>
+        <v>22.98179226423188</v>
       </c>
       <c r="G7">
-        <v>2.066447608863804</v>
+        <v>25.80066616204901</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>10.31650504968446</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.789458497045637</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.983612591995852</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.616407990651744</v>
       </c>
       <c r="M7">
-        <v>26.1322847512832</v>
+        <v>9.337719427097367</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.74564362728833</v>
+        <v>16.99874461859553</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.21963754163537</v>
+        <v>12.67769305640446</v>
       </c>
       <c r="C8">
-        <v>12.29170015323179</v>
+        <v>8.648149166132979</v>
       </c>
       <c r="D8">
-        <v>3.77957551517113</v>
+        <v>6.215065492537187</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.20915075181617</v>
+        <v>22.92628158249916</v>
       </c>
       <c r="G8">
-        <v>2.052495461622998</v>
+        <v>25.68228942975551</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>10.18525729840091</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.710513178547307</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.70049900000498</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.718186584827425</v>
       </c>
       <c r="M8">
-        <v>29.16862608993289</v>
+        <v>9.754389825738965</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.55036557081893</v>
+        <v>16.81267423569804</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.17916409356652</v>
+        <v>14.66114777531857</v>
       </c>
       <c r="C9">
-        <v>14.03547680740655</v>
+        <v>8.531448371545201</v>
       </c>
       <c r="D9">
-        <v>3.695321333673999</v>
+        <v>6.60242336078108</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>40.08037534313777</v>
+        <v>22.9512888159253</v>
       </c>
       <c r="G9">
-        <v>2.025831874505705</v>
+        <v>25.64659843132774</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>9.966509625242823</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>6.566793121604086</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.97745025150026</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>6.930023934616937</v>
       </c>
       <c r="M9">
-        <v>34.82286200410633</v>
+        <v>10.54317294585952</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.04942719947908</v>
+        <v>16.53679740874541</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.16525053517446</v>
+        <v>15.96729167781601</v>
       </c>
       <c r="C10">
-        <v>15.20874613046664</v>
+        <v>8.454586653650937</v>
       </c>
       <c r="D10">
-        <v>3.645981300150774</v>
+        <v>6.884147111370707</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>43.58355950945545</v>
+        <v>23.05855856359256</v>
       </c>
       <c r="G10">
-        <v>2.006333930440748</v>
+        <v>25.75374000875702</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.831258990198959</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>6.467792011634383</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.83415295945172</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.092245918962161</v>
       </c>
       <c r="M10">
-        <v>38.90026172111662</v>
+        <v>11.09989908780686</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.60151609920719</v>
+        <v>16.39437656487149</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.0301240234285</v>
+        <v>16.52924633860179</v>
       </c>
       <c r="C11">
-        <v>15.71950988000764</v>
+        <v>8.42159570255115</v>
       </c>
       <c r="D11">
-        <v>3.627378996926299</v>
+        <v>7.01115592715069</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>45.16675602604125</v>
+        <v>23.12817043685989</v>
       </c>
       <c r="G11">
-        <v>1.997386986729902</v>
+        <v>25.83425849962677</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>9.775722507221458</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>6.424147810010942</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.20582627765982</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.167284341604654</v>
       </c>
       <c r="M11">
-        <v>40.77279237804134</v>
+        <v>11.34725266744185</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.76293369604407</v>
+        <v>16.3440559232288</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.35227071547302</v>
+        <v>16.73745749229343</v>
       </c>
       <c r="C12">
-        <v>15.90964175917356</v>
+        <v>8.409391271255187</v>
       </c>
       <c r="D12">
-        <v>3.62101275117289</v>
+        <v>7.059045940866983</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>45.7656245032724</v>
+        <v>23.15764281535835</v>
       </c>
       <c r="G12">
-        <v>1.993977290292242</v>
+        <v>25.86954039289665</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>9.755595892614249</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>6.407818166481033</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.34395551107919</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.195862232541146</v>
       </c>
       <c r="M12">
-        <v>41.48855450886643</v>
+        <v>11.4400025370019</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.20344883979224</v>
+        <v>16.32720168475112</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.28312608146902</v>
+        <v>16.69281887836073</v>
       </c>
       <c r="C13">
-        <v>15.8688394675114</v>
+        <v>8.412006802462855</v>
       </c>
       <c r="D13">
-        <v>3.622351313325836</v>
+        <v>7.048741709854073</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>45.63665921442264</v>
+        <v>23.15115515707466</v>
       </c>
       <c r="G13">
-        <v>1.994712793401036</v>
+        <v>25.86172527621902</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>9.759889609463999</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6.411326307507627</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.31432347019388</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.189700500855861</v>
       </c>
       <c r="M13">
-        <v>41.33402336558949</v>
+        <v>11.42006899494456</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.10853103117001</v>
+        <v>16.33073168040916</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>24.056733589206</v>
+        <v>16.54646770905842</v>
       </c>
       <c r="C14">
-        <v>15.73521792997369</v>
+        <v>8.420585825791786</v>
       </c>
       <c r="D14">
-        <v>3.62684081312524</v>
+        <v>7.015100202885861</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>45.21603228498273</v>
+        <v>23.13053211303857</v>
       </c>
       <c r="G14">
-        <v>1.997106974325781</v>
+        <v>25.83706389917186</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>9.774048309261579</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.422800418168046</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.21724275782178</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.169632297391655</v>
       </c>
       <c r="M14">
-        <v>40.83151578545026</v>
+        <v>11.35490200404451</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.79915617574595</v>
+        <v>16.34262449358116</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.91736905049617</v>
+        <v>16.45622710153871</v>
       </c>
       <c r="C15">
-        <v>15.65294343489696</v>
+        <v>8.425878446251886</v>
       </c>
       <c r="D15">
-        <v>3.629683359180987</v>
+        <v>6.994465917925094</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>44.95833210799014</v>
+        <v>23.11830862494491</v>
       </c>
       <c r="G15">
-        <v>1.998570293402373</v>
+        <v>25.8225884904665</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>9.78283994519156</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.429854279078405</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.15743694773132</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.15736062614208</v>
       </c>
       <c r="M15">
-        <v>40.52473233555097</v>
+        <v>11.31486397071151</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.60977173110535</v>
+        <v>16.35019949531193</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>23.10796821636677</v>
+        <v>15.92992206313323</v>
       </c>
       <c r="C16">
-        <v>15.17490655637921</v>
+        <v>8.456782800018663</v>
       </c>
       <c r="D16">
-        <v>3.64728432384393</v>
+        <v>6.87582014379392</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>43.47994871324727</v>
+        <v>23.05443833815756</v>
       </c>
       <c r="G16">
-        <v>2.006916236974705</v>
+        <v>25.74913653536064</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>9.835012523085283</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.470672041560264</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.80949817720355</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.087365592988386</v>
       </c>
       <c r="M16">
-        <v>38.77856524104795</v>
+        <v>11.08360907002963</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.52567304274567</v>
+        <v>16.39796646847439</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.60167165553774</v>
+        <v>15.59883039781845</v>
       </c>
       <c r="C17">
-        <v>14.87578481487329</v>
+        <v>8.476250373491055</v>
       </c>
       <c r="D17">
-        <v>3.659145658416421</v>
+        <v>6.802710763632396</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>42.57083714863086</v>
+        <v>23.02067268096243</v>
       </c>
       <c r="G17">
-        <v>2.012009706411136</v>
+        <v>25.71237570360573</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>9.868582102398058</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>6.496067000682879</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.59140996339915</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.044732553675908</v>
       </c>
       <c r="M17">
-        <v>37.71440589873801</v>
+        <v>10.94017774360216</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.86110871350382</v>
+        <v>16.43105978463446</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>22.3068174856124</v>
+        <v>15.40536015824068</v>
       </c>
       <c r="C18">
-        <v>14.70157618242321</v>
+        <v>8.487633087677079</v>
       </c>
       <c r="D18">
-        <v>3.666320548577321</v>
+        <v>6.760554238182211</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>42.04689131804673</v>
+        <v>23.003203821171</v>
       </c>
       <c r="G18">
-        <v>2.014932829410247</v>
+        <v>25.69421028314337</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>9.888451485258097</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>6.510804681632202</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.46427356247353</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.020329093887454</v>
       </c>
       <c r="M18">
-        <v>37.10368405847782</v>
+        <v>10.85712761964607</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.47885966997325</v>
+        <v>16.45144839925769</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>22.20635309123676</v>
+        <v>15.33933186209387</v>
       </c>
       <c r="C19">
-        <v>14.64221995401823</v>
+        <v>8.491518799390017</v>
       </c>
       <c r="D19">
-        <v>3.668807082760257</v>
+        <v>6.74626385458695</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>41.86929175893121</v>
+        <v>22.99762078875595</v>
       </c>
       <c r="G19">
-        <v>2.015921711281059</v>
+        <v>25.68856445194008</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>9.895274032216571</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>6.515817218160841</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.42093652037338</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.012087258451455</v>
       </c>
       <c r="M19">
-        <v>36.89703256795609</v>
+        <v>10.82891567472372</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>32.34941971958747</v>
+        <v>16.45858062016197</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.65594375825843</v>
+        <v>15.63438947431252</v>
       </c>
       <c r="C20">
-        <v>14.90785035898185</v>
+        <v>8.474158787836851</v>
       </c>
       <c r="D20">
-        <v>3.657845703480655</v>
+        <v>6.810504650218882</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>42.66771714228513</v>
+        <v>23.02406417012659</v>
       </c>
       <c r="G20">
-        <v>2.011468239326428</v>
+        <v>25.71597906938216</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>9.864950198791309</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>6.493350107617029</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.61480171969369</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.049258826391916</v>
       </c>
       <c r="M20">
-        <v>37.82752176933747</v>
+        <v>10.9555039322793</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.93184985183439</v>
+        <v>16.42739592909404</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>24.12337454593618</v>
+        <v>16.58957878187815</v>
       </c>
       <c r="C21">
-        <v>15.77455489983998</v>
+        <v>8.418058088707131</v>
       </c>
       <c r="D21">
-        <v>3.625502567292469</v>
+        <v>7.024987408020847</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>45.33958984335247</v>
+        <v>23.13650421688057</v>
       </c>
       <c r="G21">
-        <v>1.996404432381387</v>
+        <v>25.84417578616634</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>9.769864671191044</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>6.419424855810722</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.24582882052947</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.17552253332092</v>
       </c>
       <c r="M21">
-        <v>40.97889292462251</v>
+        <v>11.37406853167166</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>34.89000120835072</v>
+        <v>16.33907056374738</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.05126002841006</v>
+        <v>17.18712373096388</v>
       </c>
       <c r="C22">
-        <v>16.32184418141884</v>
+        <v>8.383077268652178</v>
       </c>
       <c r="D22">
-        <v>3.608401832955109</v>
+        <v>7.163950605322055</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>47.14395892329306</v>
+        <v>23.22818115534182</v>
       </c>
       <c r="G22">
-        <v>1.986425748457785</v>
+        <v>25.95598353891803</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>9.713011105312498</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>6.372260195312587</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.64299302451866</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.258982950277495</v>
       </c>
       <c r="M22">
-        <v>43.08055663048412</v>
+        <v>11.64225111019344</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.17443710533894</v>
+        <v>16.29423379510662</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.55881841100061</v>
+        <v>16.87063348777792</v>
       </c>
       <c r="C23">
-        <v>16.0314997827353</v>
+        <v>8.401591423480754</v>
       </c>
       <c r="D23">
-        <v>3.617108439472014</v>
+        <v>7.089906732400333</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>46.15226690318407</v>
+        <v>23.1775486844965</v>
       </c>
       <c r="G23">
-        <v>1.991768093001574</v>
+        <v>25.89367453664951</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.742855978827162</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>6.39732854100933</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.43241898450646</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.21435781784989</v>
       </c>
       <c r="M23">
-        <v>41.95321643815981</v>
+        <v>11.49962897265486</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.48818985491095</v>
+        <v>16.31694359560132</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.63141912112439</v>
+        <v>15.6183229410749</v>
       </c>
       <c r="C24">
-        <v>14.89336050408133</v>
+        <v>8.475103800549999</v>
       </c>
       <c r="D24">
-        <v>3.658432314331572</v>
+        <v>6.806981420244932</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>42.62392175991913</v>
+        <v>23.02252483345578</v>
       </c>
       <c r="G24">
-        <v>2.011713051973703</v>
+        <v>25.71434075723202</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>9.866590410840805</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>6.494577985612563</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.60423177015791</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.047212164468593</v>
       </c>
       <c r="M24">
-        <v>37.77637901762929</v>
+        <v>10.94857679336881</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.89986839532102</v>
+        <v>16.42904812236945</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.41231867610101</v>
+        <v>14.15129383441794</v>
       </c>
       <c r="C25">
-        <v>13.58284062357344</v>
+        <v>8.561474816659425</v>
       </c>
       <c r="D25">
-        <v>3.716221762780583</v>
+        <v>6.497944689833448</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>38.77712482076024</v>
+        <v>22.92943129124332</v>
       </c>
       <c r="G25">
-        <v>2.033001251796264</v>
+        <v>25.63380443114053</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>10.02136265625525</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>6.604503506312769</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.64614709942108</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.87149496325137</v>
       </c>
       <c r="M25">
-        <v>33.315972365804</v>
+        <v>10.33342754034212</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.10703842295936</v>
+        <v>16.60129805233075</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.96942157025143</v>
+        <v>12.41929701408701</v>
       </c>
       <c r="C2">
-        <v>8.631013589079533</v>
+        <v>11.8061794470366</v>
       </c>
       <c r="D2">
-        <v>6.268704440735768</v>
+        <v>9.551612687867879</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.9200245197012</v>
+        <v>35.52485888897037</v>
       </c>
       <c r="G2">
-        <v>25.66299719310813</v>
+        <v>37.96388835106357</v>
       </c>
       <c r="H2">
-        <v>10.15224410141576</v>
+        <v>16.76192063483097</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.689879930165299</v>
+        <v>11.29924557356578</v>
       </c>
       <c r="K2">
-        <v>10.8861582195491</v>
+        <v>8.440156849915784</v>
       </c>
       <c r="L2">
-        <v>6.746624473469598</v>
+        <v>11.29401446750008</v>
       </c>
       <c r="M2">
-        <v>9.865600279752188</v>
+        <v>14.95976690132833</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.76806927854241</v>
+        <v>26.70313410578052</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.10415057032441</v>
+        <v>12.19768129536238</v>
       </c>
       <c r="C3">
-        <v>8.681787200704468</v>
+        <v>11.82555937502406</v>
       </c>
       <c r="D3">
-        <v>6.113209610998567</v>
+        <v>9.542956447578382</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.94812845053298</v>
+        <v>35.63052537396351</v>
       </c>
       <c r="G3">
-        <v>25.73348211772376</v>
+        <v>38.10480249299925</v>
       </c>
       <c r="H3">
-        <v>10.25087114690313</v>
+        <v>16.81358878332315</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.750567167533212</v>
+        <v>11.32291074216963</v>
       </c>
       <c r="K3">
-        <v>10.33801619562027</v>
+        <v>8.258915295559136</v>
       </c>
       <c r="L3">
-        <v>6.665101076660229</v>
+        <v>11.29924546051333</v>
       </c>
       <c r="M3">
-        <v>9.541075021072023</v>
+        <v>14.9250641146095</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.90402868263256</v>
+        <v>26.79606946567962</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.54087423706004</v>
+        <v>12.06122574578846</v>
       </c>
       <c r="C4">
-        <v>8.714743076030821</v>
+        <v>11.83830731479546</v>
       </c>
       <c r="D4">
-        <v>6.018003416094485</v>
+        <v>9.538911335593102</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.98157105517184</v>
+        <v>35.70197492085089</v>
       </c>
       <c r="G4">
-        <v>25.80024535695086</v>
+        <v>38.20006924963298</v>
       </c>
       <c r="H4">
-        <v>10.31613541720085</v>
+        <v>16.84748764081838</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.789242569838414</v>
+        <v>11.33825053604416</v>
       </c>
       <c r="K4">
-        <v>9.985586438966305</v>
+        <v>8.146368358980958</v>
       </c>
       <c r="L4">
-        <v>6.616670187048686</v>
+        <v>11.30360991581294</v>
       </c>
       <c r="M4">
-        <v>9.338837004219711</v>
+        <v>14.90538018329118</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.99820239979159</v>
+        <v>26.8575762927958</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.30324949234456</v>
+        <v>12.00559296448437</v>
       </c>
       <c r="C5">
-        <v>8.728618108582205</v>
+        <v>11.84371611058421</v>
       </c>
       <c r="D5">
-        <v>5.979326720121132</v>
+        <v>9.537584119036705</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.99914648261122</v>
+        <v>35.73274203286574</v>
       </c>
       <c r="G5">
-        <v>25.8331301448951</v>
+        <v>38.24108570907687</v>
       </c>
       <c r="H5">
-        <v>10.34388818784926</v>
+        <v>16.86184907802713</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.80536110567432</v>
+        <v>11.34470566411022</v>
       </c>
       <c r="K5">
-        <v>9.838065234068335</v>
+        <v>8.10024625791926</v>
       </c>
       <c r="L5">
-        <v>6.597356766259916</v>
+        <v>11.30567913346021</v>
       </c>
       <c r="M5">
-        <v>9.255792330777009</v>
+        <v>14.89777233065736</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.03917982723178</v>
+        <v>26.88375828881805</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.26462706691407</v>
+        <v>11.99635568577965</v>
       </c>
       <c r="C6">
-        <v>8.730948869887236</v>
+        <v>11.84462717187356</v>
       </c>
       <c r="D6">
-        <v>5.972913351494701</v>
+        <v>9.537383187594914</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.00229966177202</v>
+        <v>35.73795055784903</v>
       </c>
       <c r="G6">
-        <v>25.83892694536132</v>
+        <v>38.24802886810021</v>
       </c>
       <c r="H6">
-        <v>10.3485656545402</v>
+        <v>16.86426686194136</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.80805927525778</v>
+        <v>11.34578987237016</v>
       </c>
       <c r="K6">
-        <v>9.813336611974307</v>
+        <v>8.092573898826764</v>
       </c>
       <c r="L6">
-        <v>6.594175702529748</v>
+        <v>11.3060403045729</v>
       </c>
       <c r="M6">
-        <v>9.241968341142554</v>
+        <v>14.89653417442879</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.04613867839692</v>
+        <v>26.88817328008736</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.53770233449647</v>
+        <v>12.06047547443749</v>
       </c>
       <c r="C7">
-        <v>8.714928399925874</v>
+        <v>11.8383793929071</v>
       </c>
       <c r="D7">
-        <v>6.017481248951527</v>
+        <v>9.538892133373929</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.98179226423188</v>
+        <v>35.7023831743584</v>
       </c>
       <c r="G7">
-        <v>25.80066616204901</v>
+        <v>38.20061353262007</v>
       </c>
       <c r="H7">
-        <v>10.31650504968446</v>
+        <v>16.84767910706334</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.789458497045637</v>
+        <v>11.33833676530347</v>
       </c>
       <c r="K7">
-        <v>9.983612591995852</v>
+        <v>8.14574730584328</v>
       </c>
       <c r="L7">
-        <v>6.616407990651744</v>
+        <v>11.30363664403246</v>
       </c>
       <c r="M7">
-        <v>9.337719427097367</v>
+        <v>14.90527590016157</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.99874461859553</v>
+        <v>26.85792486784155</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67769305640446</v>
+        <v>12.34300500154923</v>
       </c>
       <c r="C8">
-        <v>8.648149166132979</v>
+        <v>11.81268583608115</v>
       </c>
       <c r="D8">
-        <v>6.215065492537187</v>
+        <v>9.548365629209005</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.92628158249916</v>
+        <v>35.55992841140585</v>
       </c>
       <c r="G8">
-        <v>25.68228942975551</v>
+        <v>38.01065788576125</v>
       </c>
       <c r="H8">
-        <v>10.18525729840091</v>
+        <v>16.77928487894737</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.710513178547307</v>
+        <v>11.3072376799638</v>
       </c>
       <c r="K8">
-        <v>10.70049900000498</v>
+        <v>8.377962073321115</v>
       </c>
       <c r="L8">
-        <v>6.718186584827425</v>
+        <v>11.29557940308034</v>
       </c>
       <c r="M8">
-        <v>9.754389825738965</v>
+        <v>14.94746757991589</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.81267423569804</v>
+        <v>26.73425580904906</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.66114777531857</v>
+        <v>12.89100351226886</v>
       </c>
       <c r="C9">
-        <v>8.531448371545201</v>
+        <v>11.76901074505003</v>
       </c>
       <c r="D9">
-        <v>6.60242336078108</v>
+        <v>9.576930977379652</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.9512888159253</v>
+        <v>35.33275551205404</v>
       </c>
       <c r="G9">
-        <v>25.64659843132774</v>
+        <v>37.70773763505554</v>
       </c>
       <c r="H9">
-        <v>9.966509625242823</v>
+        <v>16.6623895888251</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.566793121604086</v>
+        <v>11.25264930404137</v>
       </c>
       <c r="K9">
-        <v>11.97745025150026</v>
+        <v>8.820814127159784</v>
       </c>
       <c r="L9">
-        <v>6.930023934616937</v>
+        <v>11.28888704523896</v>
       </c>
       <c r="M9">
-        <v>10.54317294585952</v>
+        <v>15.04285023133193</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.53679740874541</v>
+        <v>26.52700535173678</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.96729167781601</v>
+        <v>13.2860523681435</v>
       </c>
       <c r="C10">
-        <v>8.454586653650937</v>
+        <v>11.74098152081356</v>
       </c>
       <c r="D10">
-        <v>6.884147111370707</v>
+        <v>9.60388151239747</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.05855856359256</v>
+        <v>35.19772769473185</v>
       </c>
       <c r="G10">
-        <v>25.75374000875702</v>
+        <v>37.52785971056686</v>
       </c>
       <c r="H10">
-        <v>9.831258990198959</v>
+        <v>16.58696993586295</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.467792011634383</v>
+        <v>11.21640864679067</v>
       </c>
       <c r="K10">
-        <v>12.83415295945172</v>
+        <v>9.13540035040643</v>
       </c>
       <c r="L10">
-        <v>7.092245918962161</v>
+        <v>11.28947087108632</v>
       </c>
       <c r="M10">
-        <v>11.09989908780686</v>
+        <v>15.12030303834328</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.39437656487149</v>
+        <v>26.39623853974871</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.52924633860179</v>
+        <v>13.46335488934754</v>
       </c>
       <c r="C11">
-        <v>8.42159570255115</v>
+        <v>11.72910498877301</v>
       </c>
       <c r="D11">
-        <v>7.01115592715069</v>
+        <v>9.617407271980992</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.12817043685989</v>
+        <v>35.1432335416404</v>
       </c>
       <c r="G11">
-        <v>25.83425849962677</v>
+        <v>37.45534753175409</v>
       </c>
       <c r="H11">
-        <v>9.775722507221458</v>
+        <v>16.55492372979495</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>6.424147810010942</v>
+        <v>11.20075390805709</v>
       </c>
       <c r="K11">
-        <v>13.20582627765982</v>
+        <v>9.275568227078509</v>
       </c>
       <c r="L11">
-        <v>7.167284341604654</v>
+        <v>11.29091896917137</v>
       </c>
       <c r="M11">
-        <v>11.34725266744185</v>
+        <v>15.15706361584318</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.3440559232288</v>
+        <v>26.34141850253214</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.73745749229343</v>
+        <v>13.53008809385313</v>
       </c>
       <c r="C12">
-        <v>8.409391271255187</v>
+        <v>11.72473283392569</v>
       </c>
       <c r="D12">
-        <v>7.059045940866983</v>
+        <v>9.622708374490495</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.15764281535835</v>
+        <v>35.12359545792196</v>
       </c>
       <c r="G12">
-        <v>25.86954039289665</v>
+        <v>37.42923258124442</v>
       </c>
       <c r="H12">
-        <v>9.755595892614249</v>
+        <v>16.54311346298461</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>6.407818166481033</v>
+        <v>11.19494486339422</v>
       </c>
       <c r="K12">
-        <v>13.34395551107919</v>
+        <v>9.32817737170776</v>
       </c>
       <c r="L12">
-        <v>7.195862232541146</v>
+        <v>11.29163625969655</v>
       </c>
       <c r="M12">
-        <v>11.4400025370019</v>
+        <v>15.17119658477405</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.32720168475112</v>
+        <v>26.32133076296243</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.69281887836073</v>
+        <v>13.51573496482913</v>
       </c>
       <c r="C13">
-        <v>8.412006802462855</v>
+        <v>11.72566889341192</v>
       </c>
       <c r="D13">
-        <v>7.048741709854073</v>
+        <v>9.621558764303256</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.15115515707466</v>
+        <v>35.12778048385317</v>
       </c>
       <c r="G13">
-        <v>25.86172527621902</v>
+        <v>37.43479706908568</v>
       </c>
       <c r="H13">
-        <v>9.759889609463999</v>
+        <v>16.54564257020477</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>6.411326307507627</v>
+        <v>11.19619065719511</v>
       </c>
       <c r="K13">
-        <v>13.31432347019388</v>
+        <v>9.316868636800415</v>
       </c>
       <c r="L13">
-        <v>7.189700500855861</v>
+        <v>11.29147428360575</v>
       </c>
       <c r="M13">
-        <v>11.42006899494456</v>
+        <v>15.16814345877882</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.33073168040916</v>
+        <v>26.32562714936576</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.54646770905842</v>
+        <v>13.46885357473425</v>
       </c>
       <c r="C14">
-        <v>8.420585825791786</v>
+        <v>11.72874278181084</v>
       </c>
       <c r="D14">
-        <v>7.015100202885861</v>
+        <v>9.617839822363477</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.13053211303857</v>
+        <v>35.14159790440105</v>
       </c>
       <c r="G14">
-        <v>25.83706389917186</v>
+        <v>37.45317208257546</v>
       </c>
       <c r="H14">
-        <v>9.774048309261579</v>
+        <v>16.55394558219963</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>6.422800418168046</v>
+        <v>11.20027361093032</v>
       </c>
       <c r="K14">
-        <v>13.21724275782178</v>
+        <v>9.279906076442158</v>
       </c>
       <c r="L14">
-        <v>7.169632297391655</v>
+        <v>11.29097460212409</v>
       </c>
       <c r="M14">
-        <v>11.35490200404451</v>
+        <v>15.1582221252332</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.34262449358116</v>
+        <v>26.33975241364496</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.45622710153871</v>
+        <v>13.44008254975929</v>
       </c>
       <c r="C15">
-        <v>8.425878446251886</v>
+        <v>11.73064192214968</v>
       </c>
       <c r="D15">
-        <v>6.994465917925094</v>
+        <v>9.615585112434189</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.11830862494491</v>
+        <v>35.15019142811213</v>
       </c>
       <c r="G15">
-        <v>25.8225884904665</v>
+        <v>37.46460244078227</v>
       </c>
       <c r="H15">
-        <v>9.78283994519156</v>
+        <v>16.5590737207815</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>6.429854279078405</v>
+        <v>11.20279002969943</v>
       </c>
       <c r="K15">
-        <v>13.15743694773132</v>
+        <v>9.257202981148502</v>
       </c>
       <c r="L15">
-        <v>7.15736062614208</v>
+        <v>11.29069049806148</v>
       </c>
       <c r="M15">
-        <v>11.31486397071151</v>
+        <v>15.15217248792182</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.35019949531193</v>
+        <v>26.34849199597985</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.92992206313323</v>
+        <v>13.2744114822154</v>
       </c>
       <c r="C16">
-        <v>8.456782800018663</v>
+        <v>11.74177522945454</v>
       </c>
       <c r="D16">
-        <v>6.87582014379392</v>
+        <v>9.603022804968761</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.05443833815756</v>
+        <v>35.20142857139169</v>
       </c>
       <c r="G16">
-        <v>25.74913653536064</v>
+        <v>37.53278637222771</v>
       </c>
       <c r="H16">
-        <v>9.835012523085283</v>
+        <v>16.58910972345573</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.470672041560264</v>
+        <v>11.21744840810675</v>
       </c>
       <c r="K16">
-        <v>12.80949817720355</v>
+        <v>9.126176837168366</v>
       </c>
       <c r="L16">
-        <v>7.087365592988386</v>
+        <v>11.28939993539158</v>
       </c>
       <c r="M16">
-        <v>11.08360907002963</v>
+        <v>15.11793077754398</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.39796646847439</v>
+        <v>26.39991509221083</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.59883039781845</v>
+        <v>13.17211650488892</v>
       </c>
       <c r="C17">
-        <v>8.476250373491055</v>
+        <v>11.74882869933357</v>
       </c>
       <c r="D17">
-        <v>6.802710763632396</v>
+        <v>9.59563847496125</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.02067268096243</v>
+        <v>35.23463680076632</v>
       </c>
       <c r="G17">
-        <v>25.71237570360573</v>
+        <v>37.57700399697549</v>
       </c>
       <c r="H17">
-        <v>9.868582102398058</v>
+        <v>16.60811503561403</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.496067000682879</v>
+        <v>11.22665342772812</v>
       </c>
       <c r="K17">
-        <v>12.59140996339915</v>
+        <v>9.045009477707213</v>
       </c>
       <c r="L17">
-        <v>7.044732553675908</v>
+        <v>11.28891030900999</v>
       </c>
       <c r="M17">
-        <v>10.94017774360216</v>
+        <v>15.0973107446101</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.43105978463446</v>
+        <v>26.43265696159376</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.40536015824068</v>
+        <v>13.11305602893578</v>
       </c>
       <c r="C18">
-        <v>8.487633087677079</v>
+        <v>11.7529679708287</v>
       </c>
       <c r="D18">
-        <v>6.760554238182211</v>
+        <v>9.59151052805475</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.003203821171</v>
+        <v>35.25438959030326</v>
       </c>
       <c r="G18">
-        <v>25.69421028314337</v>
+        <v>37.60331335014632</v>
       </c>
       <c r="H18">
-        <v>9.888451485258097</v>
+        <v>16.61925937688574</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.510804681632202</v>
+        <v>11.23202618736598</v>
       </c>
       <c r="K18">
-        <v>12.46427356247353</v>
+        <v>8.99805011676319</v>
       </c>
       <c r="L18">
-        <v>7.020329093887454</v>
+        <v>11.28874006269091</v>
       </c>
       <c r="M18">
-        <v>10.85712761964607</v>
+        <v>15.08559480231028</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.45144839925769</v>
+        <v>26.45192842308818</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.33933186209387</v>
+        <v>13.09302276644869</v>
       </c>
       <c r="C19">
-        <v>8.491518799390017</v>
+        <v>11.7543836067508</v>
       </c>
       <c r="D19">
-        <v>6.74626385458695</v>
+        <v>9.590133454183555</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.99762078875595</v>
+        <v>35.26118954346847</v>
       </c>
       <c r="G19">
-        <v>25.68856445194008</v>
+        <v>37.61237165712036</v>
       </c>
       <c r="H19">
-        <v>9.895274032216571</v>
+        <v>16.62306925327077</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.515817218160841</v>
+        <v>11.2338587700366</v>
       </c>
       <c r="K19">
-        <v>12.42093652037338</v>
+        <v>8.982104896020473</v>
       </c>
       <c r="L19">
-        <v>7.012087258451455</v>
+        <v>11.28870158193763</v>
       </c>
       <c r="M19">
-        <v>10.82891567472372</v>
+        <v>15.08165295487214</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.45858062016197</v>
+        <v>26.45852883067896</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.63438947431252</v>
+        <v>13.18302952498633</v>
       </c>
       <c r="C20">
-        <v>8.474158787836851</v>
+        <v>11.74806933084036</v>
       </c>
       <c r="D20">
-        <v>6.810504650218882</v>
+        <v>9.596412219939079</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.02406417012659</v>
+        <v>35.23103421001976</v>
       </c>
       <c r="G20">
-        <v>25.71597906938216</v>
+        <v>37.57220620418334</v>
       </c>
       <c r="H20">
-        <v>9.864950198791309</v>
+        <v>16.60606984725868</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.493350107617029</v>
+        <v>11.2256654398962</v>
       </c>
       <c r="K20">
-        <v>12.61480171969369</v>
+        <v>9.053678593308931</v>
       </c>
       <c r="L20">
-        <v>7.049258826391916</v>
+        <v>11.28895091172742</v>
       </c>
       <c r="M20">
-        <v>10.9555039322793</v>
+        <v>15.09949091300574</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.42739592909404</v>
+        <v>26.42912607488124</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.58957878187815</v>
+        <v>13.48263530458028</v>
       </c>
       <c r="C21">
-        <v>8.418058088707131</v>
+        <v>11.72783651124933</v>
       </c>
       <c r="D21">
-        <v>7.024987408020847</v>
+        <v>9.618927325866457</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.13650421688057</v>
+        <v>35.13751230894722</v>
       </c>
       <c r="G21">
-        <v>25.84417578616634</v>
+        <v>37.4477383909737</v>
       </c>
       <c r="H21">
-        <v>9.769864671191044</v>
+        <v>16.551497970929</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>6.419424855810722</v>
+        <v>11.19907112083223</v>
       </c>
       <c r="K21">
-        <v>13.24582882052947</v>
+        <v>9.290775971797018</v>
       </c>
       <c r="L21">
-        <v>7.17552253332092</v>
+        <v>11.2911167952115</v>
       </c>
       <c r="M21">
-        <v>11.37406853167166</v>
+        <v>15.16113055037004</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.33907056374738</v>
+        <v>26.33558525590808</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.18712373096388</v>
+        <v>13.67604419550817</v>
       </c>
       <c r="C22">
-        <v>8.383077268652178</v>
+        <v>11.71534291834991</v>
       </c>
       <c r="D22">
-        <v>7.163950605322055</v>
+        <v>9.634685295570803</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.22818115534182</v>
+        <v>35.08220590559406</v>
       </c>
       <c r="G22">
-        <v>25.95598353891803</v>
+        <v>37.37422624000929</v>
       </c>
       <c r="H22">
-        <v>9.713011105312498</v>
+        <v>16.51772588335298</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>6.372260195312587</v>
+        <v>11.18238398071621</v>
       </c>
       <c r="K22">
-        <v>13.64299302451866</v>
+        <v>9.442977496666659</v>
       </c>
       <c r="L22">
-        <v>7.258982950277495</v>
+        <v>11.29351640722532</v>
       </c>
       <c r="M22">
-        <v>11.64225111019344</v>
+        <v>15.20265102303489</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.29423379510662</v>
+        <v>26.27836464572398</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.87063348777792</v>
+        <v>13.57305729702675</v>
       </c>
       <c r="C23">
-        <v>8.401591423480754</v>
+        <v>11.72194436656257</v>
       </c>
       <c r="D23">
-        <v>7.089906732400333</v>
+        <v>9.626180504863232</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.1775486844965</v>
+        <v>35.11119154033236</v>
       </c>
       <c r="G23">
-        <v>25.89367453664951</v>
+        <v>37.4127428074376</v>
       </c>
       <c r="H23">
-        <v>9.742855978827162</v>
+        <v>16.5355775360808</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>6.39732854100933</v>
+        <v>11.19122689653909</v>
       </c>
       <c r="K23">
-        <v>13.43241898450646</v>
+        <v>9.362011387435246</v>
       </c>
       <c r="L23">
-        <v>7.21435781784989</v>
+        <v>11.29214602804279</v>
       </c>
       <c r="M23">
-        <v>11.49962897265486</v>
+        <v>15.18038010556398</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.31694359560132</v>
+        <v>26.30854612784759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.6183229410749</v>
+        <v>13.17809652176554</v>
       </c>
       <c r="C24">
-        <v>8.475103800549999</v>
+        <v>11.7484123792231</v>
       </c>
       <c r="D24">
-        <v>6.806981420244932</v>
+        <v>9.59606204393593</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.02252483345578</v>
+        <v>35.23266088261747</v>
       </c>
       <c r="G24">
-        <v>25.71434075723202</v>
+        <v>37.57437252042136</v>
       </c>
       <c r="H24">
-        <v>9.866590410840805</v>
+        <v>16.60699379803006</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.494577985612563</v>
+        <v>11.22611185787576</v>
       </c>
       <c r="K24">
-        <v>12.60423177015791</v>
+        <v>9.049760201932019</v>
       </c>
       <c r="L24">
-        <v>7.047212164468593</v>
+        <v>11.28893220863911</v>
       </c>
       <c r="M24">
-        <v>10.94857679336881</v>
+        <v>15.09850482603282</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.42904812236945</v>
+        <v>26.43072099416065</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.15129383441794</v>
+        <v>12.74381228344102</v>
       </c>
       <c r="C25">
-        <v>8.561474816659425</v>
+        <v>11.78011096531403</v>
       </c>
       <c r="D25">
-        <v>6.497944689833448</v>
+        <v>9.568146360771273</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.92943129124332</v>
+        <v>35.38861830196211</v>
       </c>
       <c r="G25">
-        <v>25.63380443114053</v>
+        <v>37.78220895503475</v>
       </c>
       <c r="H25">
-        <v>10.02136265625525</v>
+        <v>16.69217270055344</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.604503506312769</v>
+        <v>11.26673564051259</v>
       </c>
       <c r="K25">
-        <v>11.64614709942108</v>
+        <v>8.702687433664016</v>
       </c>
       <c r="L25">
-        <v>6.87149496325137</v>
+        <v>11.28972758570025</v>
       </c>
       <c r="M25">
-        <v>10.33342754034212</v>
+        <v>15.01572635981742</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.60129805233075</v>
+        <v>26.57929661637836</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.41929701408701</v>
+        <v>12.96942157025145</v>
       </c>
       <c r="C2">
-        <v>11.8061794470366</v>
+        <v>8.6310135890794</v>
       </c>
       <c r="D2">
-        <v>9.551612687867879</v>
+        <v>6.268704440735838</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>35.52485888897037</v>
+        <v>22.92002451970115</v>
       </c>
       <c r="G2">
-        <v>37.96388835106357</v>
+        <v>25.66299719310794</v>
       </c>
       <c r="H2">
-        <v>16.76192063483097</v>
+        <v>10.1522441014157</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.29924557356578</v>
+        <v>6.6898799301652</v>
       </c>
       <c r="K2">
-        <v>8.440156849915784</v>
+        <v>10.88615821954914</v>
       </c>
       <c r="L2">
-        <v>11.29401446750008</v>
+        <v>6.746624473469567</v>
       </c>
       <c r="M2">
-        <v>14.95976690132833</v>
+        <v>9.865600279752165</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.70313410578052</v>
+        <v>16.76806927854232</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.19768129536238</v>
+        <v>12.10415057032444</v>
       </c>
       <c r="C3">
-        <v>11.82555937502406</v>
+        <v>8.681787200704472</v>
       </c>
       <c r="D3">
-        <v>9.542956447578382</v>
+        <v>6.113209610998608</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>35.63052537396351</v>
+        <v>22.94812845053284</v>
       </c>
       <c r="G3">
-        <v>38.10480249299925</v>
+        <v>25.73348211772362</v>
       </c>
       <c r="H3">
-        <v>16.81358878332315</v>
+        <v>10.25087114690306</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.32291074216963</v>
+        <v>6.750567167533244</v>
       </c>
       <c r="K3">
-        <v>8.258915295559136</v>
+        <v>10.33801619562033</v>
       </c>
       <c r="L3">
-        <v>11.29924546051333</v>
+        <v>6.665101076660241</v>
       </c>
       <c r="M3">
-        <v>14.9250641146095</v>
+        <v>9.541075021071984</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.79606946567962</v>
+        <v>16.90402868263242</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.06122574578846</v>
+        <v>11.54087423706005</v>
       </c>
       <c r="C4">
-        <v>11.83830731479546</v>
+        <v>8.714743076031089</v>
       </c>
       <c r="D4">
-        <v>9.538911335593102</v>
+        <v>6.018003416094442</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>35.70197492085089</v>
+        <v>22.98157105517146</v>
       </c>
       <c r="G4">
-        <v>38.20006924963298</v>
+        <v>25.80024535695025</v>
       </c>
       <c r="H4">
-        <v>16.84748764081838</v>
+        <v>10.31613541720072</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.33825053604416</v>
+        <v>6.789242569838478</v>
       </c>
       <c r="K4">
-        <v>8.146368358980958</v>
+        <v>9.985586438966349</v>
       </c>
       <c r="L4">
-        <v>11.30360991581294</v>
+        <v>6.61667018704869</v>
       </c>
       <c r="M4">
-        <v>14.90538018329118</v>
+        <v>9.33883700421972</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.8575762927958</v>
+        <v>16.99820239979127</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.00559296448437</v>
+        <v>11.30324949234456</v>
       </c>
       <c r="C5">
-        <v>11.84371611058421</v>
+        <v>8.72861810858207</v>
       </c>
       <c r="D5">
-        <v>9.537584119036705</v>
+        <v>5.979326720121033</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>35.73274203286574</v>
+        <v>22.99914648261112</v>
       </c>
       <c r="G5">
-        <v>38.24108570907687</v>
+        <v>25.83313014489512</v>
       </c>
       <c r="H5">
-        <v>16.86184907802713</v>
+        <v>10.3438881878492</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.34470566411022</v>
+        <v>6.805361105674419</v>
       </c>
       <c r="K5">
-        <v>8.10024625791926</v>
+        <v>9.838065234068329</v>
       </c>
       <c r="L5">
-        <v>11.30567913346021</v>
+        <v>6.597356766259968</v>
       </c>
       <c r="M5">
-        <v>14.89777233065736</v>
+        <v>9.255792330777036</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.88375828881805</v>
+        <v>17.03917982723173</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.99635568577965</v>
+        <v>11.2646270669141</v>
       </c>
       <c r="C6">
-        <v>11.84462717187356</v>
+        <v>8.73094886988736</v>
       </c>
       <c r="D6">
-        <v>9.537383187594914</v>
+        <v>5.972913351494603</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>35.73795055784903</v>
+        <v>23.00229966177188</v>
       </c>
       <c r="G6">
-        <v>38.24802886810021</v>
+        <v>25.83892694536113</v>
       </c>
       <c r="H6">
-        <v>16.86426686194136</v>
+        <v>10.34856565454021</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.34578987237016</v>
+        <v>6.808059275257946</v>
       </c>
       <c r="K6">
-        <v>8.092573898826764</v>
+        <v>9.813336611974295</v>
       </c>
       <c r="L6">
-        <v>11.3060403045729</v>
+        <v>6.594175702529737</v>
       </c>
       <c r="M6">
-        <v>14.89653417442879</v>
+        <v>9.24196834114262</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.88817328008736</v>
+        <v>17.04613867839684</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.06047547443749</v>
+        <v>11.53770233449648</v>
       </c>
       <c r="C7">
-        <v>11.8383793929071</v>
+        <v>8.714928399926134</v>
       </c>
       <c r="D7">
-        <v>9.538892133373929</v>
+        <v>6.017481248951611</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>35.7023831743584</v>
+        <v>22.98179226423179</v>
       </c>
       <c r="G7">
-        <v>38.20061353262007</v>
+        <v>25.80066616204877</v>
       </c>
       <c r="H7">
-        <v>16.84767910706334</v>
+        <v>10.31650504968445</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.33833676530347</v>
+        <v>6.789458497045671</v>
       </c>
       <c r="K7">
-        <v>8.14574730584328</v>
+        <v>9.983612591995916</v>
       </c>
       <c r="L7">
-        <v>11.30363664403246</v>
+        <v>6.616407990651801</v>
       </c>
       <c r="M7">
-        <v>14.90527590016157</v>
+        <v>9.337719427097415</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.85792486784155</v>
+        <v>16.99874461859542</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.34300500154923</v>
+        <v>12.67769305640443</v>
       </c>
       <c r="C8">
-        <v>11.81268583608115</v>
+        <v>8.648149166133381</v>
       </c>
       <c r="D8">
-        <v>9.548365629209005</v>
+        <v>6.21506549253728</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>35.55992841140585</v>
+        <v>22.92628158249912</v>
       </c>
       <c r="G8">
-        <v>38.01065788576125</v>
+        <v>25.68228942975532</v>
       </c>
       <c r="H8">
-        <v>16.77928487894737</v>
+        <v>10.18525729840091</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.3072376799638</v>
+        <v>6.710513178547344</v>
       </c>
       <c r="K8">
-        <v>8.377962073321115</v>
+        <v>10.700499000005</v>
       </c>
       <c r="L8">
-        <v>11.29557940308034</v>
+        <v>6.718186584827373</v>
       </c>
       <c r="M8">
-        <v>14.94746757991589</v>
+        <v>9.754389825738969</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.73425580904906</v>
+        <v>16.81267423569793</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.89100351226886</v>
+        <v>14.66114777531857</v>
       </c>
       <c r="C9">
-        <v>11.76901074505003</v>
+        <v>8.531448371545205</v>
       </c>
       <c r="D9">
-        <v>9.576930977379652</v>
+        <v>6.602423360781088</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>35.33275551205404</v>
+        <v>22.95128881592548</v>
       </c>
       <c r="G9">
-        <v>37.70773763505554</v>
+        <v>25.6465984313279</v>
       </c>
       <c r="H9">
-        <v>16.6623895888251</v>
+        <v>9.966509625242882</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.25264930404137</v>
+        <v>6.566793121604151</v>
       </c>
       <c r="K9">
-        <v>8.820814127159784</v>
+        <v>11.97745025150022</v>
       </c>
       <c r="L9">
-        <v>11.28888704523896</v>
+        <v>6.930023934617051</v>
       </c>
       <c r="M9">
-        <v>15.04285023133193</v>
+        <v>10.54317294585955</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.52700535173678</v>
+        <v>16.53679740874553</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.2860523681435</v>
+        <v>15.96729167781601</v>
       </c>
       <c r="C10">
-        <v>11.74098152081356</v>
+        <v>8.454586653651186</v>
       </c>
       <c r="D10">
-        <v>9.60388151239747</v>
+        <v>6.88414711137075</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>35.19772769473185</v>
+        <v>23.05855856359251</v>
       </c>
       <c r="G10">
-        <v>37.52785971056686</v>
+        <v>25.75374000875696</v>
       </c>
       <c r="H10">
-        <v>16.58696993586295</v>
+        <v>9.831258990198966</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.21640864679067</v>
+        <v>6.467792011634349</v>
       </c>
       <c r="K10">
-        <v>9.13540035040643</v>
+        <v>12.83415295945173</v>
       </c>
       <c r="L10">
-        <v>11.28947087108632</v>
+        <v>7.092245918962113</v>
       </c>
       <c r="M10">
-        <v>15.12030303834328</v>
+        <v>11.09989908780684</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.39623853974871</v>
+        <v>16.39437656487145</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.46335488934754</v>
+        <v>16.52924633860178</v>
       </c>
       <c r="C11">
-        <v>11.72910498877301</v>
+        <v>8.421595702551301</v>
       </c>
       <c r="D11">
-        <v>9.617407271980992</v>
+        <v>7.011155927150707</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>35.1432335416404</v>
+        <v>23.12817043685983</v>
       </c>
       <c r="G11">
-        <v>37.45534753175409</v>
+        <v>25.83425849962667</v>
       </c>
       <c r="H11">
-        <v>16.55492372979495</v>
+        <v>9.775722507221342</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.20075390805709</v>
+        <v>6.42414781001091</v>
       </c>
       <c r="K11">
-        <v>9.275568227078509</v>
+        <v>13.20582627765982</v>
       </c>
       <c r="L11">
-        <v>11.29091896917137</v>
+        <v>7.167284341604659</v>
       </c>
       <c r="M11">
-        <v>15.15706361584318</v>
+        <v>11.34725266744186</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.34141850253214</v>
+        <v>16.34405592322869</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.53008809385313</v>
+        <v>16.73745749229345</v>
       </c>
       <c r="C12">
-        <v>11.72473283392569</v>
+        <v>8.409391271255194</v>
       </c>
       <c r="D12">
-        <v>9.622708374490495</v>
+        <v>7.059045940866948</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>35.12359545792196</v>
+        <v>23.15764281535821</v>
       </c>
       <c r="G12">
-        <v>37.42923258124442</v>
+        <v>25.86954039289655</v>
       </c>
       <c r="H12">
-        <v>16.54311346298461</v>
+        <v>9.75559589261408</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.19494486339422</v>
+        <v>6.407818166481059</v>
       </c>
       <c r="K12">
-        <v>9.32817737170776</v>
+        <v>13.34395551107919</v>
       </c>
       <c r="L12">
-        <v>11.29163625969655</v>
+        <v>7.195862232541137</v>
       </c>
       <c r="M12">
-        <v>15.17119658477405</v>
+        <v>11.4400025370019</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.32133076296243</v>
+        <v>16.32720168475104</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.51573496482913</v>
+        <v>16.69281887836074</v>
       </c>
       <c r="C13">
-        <v>11.72566889341192</v>
+        <v>8.412006802462846</v>
       </c>
       <c r="D13">
-        <v>9.621558764303256</v>
+        <v>7.048741709854071</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>35.12778048385317</v>
+        <v>23.15115515707461</v>
       </c>
       <c r="G13">
-        <v>37.43479706908568</v>
+        <v>25.86172527621893</v>
       </c>
       <c r="H13">
-        <v>16.54564257020477</v>
+        <v>9.759889609463999</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.19619065719511</v>
+        <v>6.411326307507695</v>
       </c>
       <c r="K13">
-        <v>9.316868636800415</v>
+        <v>13.31432347019388</v>
       </c>
       <c r="L13">
-        <v>11.29147428360575</v>
+        <v>7.189700500855898</v>
       </c>
       <c r="M13">
-        <v>15.16814345877882</v>
+        <v>11.42006899494457</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.32562714936576</v>
+        <v>16.33073168040913</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.46885357473425</v>
+        <v>16.5464677090584</v>
       </c>
       <c r="C14">
-        <v>11.72874278181084</v>
+        <v>8.420585825791914</v>
       </c>
       <c r="D14">
-        <v>9.617839822363477</v>
+        <v>7.015100202885948</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>35.14159790440105</v>
+        <v>23.13053211303862</v>
       </c>
       <c r="G14">
-        <v>37.45317208257546</v>
+        <v>25.8370638991719</v>
       </c>
       <c r="H14">
-        <v>16.55394558219963</v>
+        <v>9.774048309261575</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.20027361093032</v>
+        <v>6.422800418168015</v>
       </c>
       <c r="K14">
-        <v>9.279906076442158</v>
+        <v>13.21724275782178</v>
       </c>
       <c r="L14">
-        <v>11.29097460212409</v>
+        <v>7.169632297391606</v>
       </c>
       <c r="M14">
-        <v>15.1582221252332</v>
+        <v>11.35490200404453</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.33975241364496</v>
+        <v>16.34262449358116</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.44008254975929</v>
+        <v>16.45622710153865</v>
       </c>
       <c r="C15">
-        <v>11.73064192214968</v>
+        <v>8.425878446252542</v>
       </c>
       <c r="D15">
-        <v>9.615585112434189</v>
+        <v>6.994465917925173</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>35.15019142811213</v>
+        <v>23.1183086249451</v>
       </c>
       <c r="G15">
-        <v>37.46460244078227</v>
+        <v>25.82258849046669</v>
       </c>
       <c r="H15">
-        <v>16.5590737207815</v>
+        <v>9.782839945191631</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.20279002969943</v>
+        <v>6.429854279078503</v>
       </c>
       <c r="K15">
-        <v>9.257202981148502</v>
+        <v>13.15743694773133</v>
       </c>
       <c r="L15">
-        <v>11.29069049806148</v>
+        <v>7.1573606261421</v>
       </c>
       <c r="M15">
-        <v>15.15217248792182</v>
+        <v>11.31486397071153</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.34849199597985</v>
+        <v>16.35019949531208</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.2744114822154</v>
+        <v>15.9299220631332</v>
       </c>
       <c r="C16">
-        <v>11.74177522945454</v>
+        <v>8.456782800018674</v>
       </c>
       <c r="D16">
-        <v>9.603022804968761</v>
+        <v>6.875820143793822</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>35.20142857139169</v>
+        <v>23.05443833815756</v>
       </c>
       <c r="G16">
-        <v>37.53278637222771</v>
+        <v>25.74913653536058</v>
       </c>
       <c r="H16">
-        <v>16.58910972345573</v>
+        <v>9.835012523085384</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.21744840810675</v>
+        <v>6.470672041560296</v>
       </c>
       <c r="K16">
-        <v>9.126176837168366</v>
+        <v>12.80949817720352</v>
       </c>
       <c r="L16">
-        <v>11.28939993539158</v>
+        <v>7.087365592988333</v>
       </c>
       <c r="M16">
-        <v>15.11793077754398</v>
+        <v>11.08360907002964</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.39991509221083</v>
+        <v>16.39796646847444</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>13.17211650488892</v>
+        <v>15.59883039781839</v>
       </c>
       <c r="C17">
-        <v>11.74882869933357</v>
+        <v>8.476250373490929</v>
       </c>
       <c r="D17">
-        <v>9.59563847496125</v>
+        <v>6.802710763632396</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>35.23463680076632</v>
+        <v>23.02067268096252</v>
       </c>
       <c r="G17">
-        <v>37.57700399697549</v>
+        <v>25.71237570360591</v>
       </c>
       <c r="H17">
-        <v>16.60811503561403</v>
+        <v>9.868582102398173</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.22665342772812</v>
+        <v>6.49606700068281</v>
       </c>
       <c r="K17">
-        <v>9.045009477707213</v>
+        <v>12.59140996339912</v>
       </c>
       <c r="L17">
-        <v>11.28891030900999</v>
+        <v>7.044732553675851</v>
       </c>
       <c r="M17">
-        <v>15.0973107446101</v>
+        <v>10.94017774360215</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.43265696159376</v>
+        <v>16.43105978463459</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>13.11305602893578</v>
+        <v>15.40536015824068</v>
       </c>
       <c r="C18">
-        <v>11.7529679708287</v>
+        <v>8.48763308767734</v>
       </c>
       <c r="D18">
-        <v>9.59151052805475</v>
+        <v>6.760554238182219</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>35.25438959030326</v>
+        <v>23.00320382117096</v>
       </c>
       <c r="G18">
-        <v>37.60331335014632</v>
+        <v>25.69421028314329</v>
       </c>
       <c r="H18">
-        <v>16.61925937688574</v>
+        <v>9.888451485258097</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.23202618736598</v>
+        <v>6.510804681632136</v>
       </c>
       <c r="K18">
-        <v>8.99805011676319</v>
+        <v>12.46427356247356</v>
       </c>
       <c r="L18">
-        <v>11.28874006269091</v>
+        <v>7.02032909388735</v>
       </c>
       <c r="M18">
-        <v>15.08559480231028</v>
+        <v>10.85712761964603</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.45192842308818</v>
+        <v>16.45144839925763</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>13.09302276644869</v>
+        <v>15.33933186209386</v>
       </c>
       <c r="C19">
-        <v>11.7543836067508</v>
+        <v>8.491518799389873</v>
       </c>
       <c r="D19">
-        <v>9.590133454183555</v>
+        <v>6.746263854586891</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>35.26118954346847</v>
+        <v>22.99762078875598</v>
       </c>
       <c r="G19">
-        <v>37.61237165712036</v>
+        <v>25.68856445194019</v>
       </c>
       <c r="H19">
-        <v>16.62306925327077</v>
+        <v>9.895274032216578</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.2338587700366</v>
+        <v>6.515817218160973</v>
       </c>
       <c r="K19">
-        <v>8.982104896020473</v>
+        <v>12.42093652037337</v>
       </c>
       <c r="L19">
-        <v>11.28870158193763</v>
+        <v>7.012087258451502</v>
       </c>
       <c r="M19">
-        <v>15.08165295487214</v>
+        <v>10.82891567472374</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.45852883067896</v>
+        <v>16.45858062016204</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>13.18302952498633</v>
+        <v>15.63438947431247</v>
       </c>
       <c r="C20">
-        <v>11.74806933084036</v>
+        <v>8.474158787836839</v>
       </c>
       <c r="D20">
-        <v>9.596412219939079</v>
+        <v>6.810504650218851</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>35.23103421001976</v>
+        <v>23.02406417012667</v>
       </c>
       <c r="G20">
-        <v>37.57220620418334</v>
+        <v>25.71597906938246</v>
       </c>
       <c r="H20">
-        <v>16.60606984725868</v>
+        <v>9.864950198791325</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.2256654398962</v>
+        <v>6.493350107617093</v>
       </c>
       <c r="K20">
-        <v>9.053678593308931</v>
+        <v>12.61480171969361</v>
       </c>
       <c r="L20">
-        <v>11.28895091172742</v>
+        <v>7.049258826391879</v>
       </c>
       <c r="M20">
-        <v>15.09949091300574</v>
+        <v>10.9555039322793</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.42912607488124</v>
+        <v>16.42739592909416</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.48263530458028</v>
+        <v>16.58957878187817</v>
       </c>
       <c r="C21">
-        <v>11.72783651124933</v>
+        <v>8.418058088707005</v>
       </c>
       <c r="D21">
-        <v>9.618927325866457</v>
+        <v>7.024987408020881</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>35.13751230894722</v>
+        <v>23.13650421688045</v>
       </c>
       <c r="G21">
-        <v>37.4477383909737</v>
+        <v>25.84417578616637</v>
       </c>
       <c r="H21">
-        <v>16.551497970929</v>
+        <v>9.769864671190994</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.19907112083223</v>
+        <v>6.41942485581079</v>
       </c>
       <c r="K21">
-        <v>9.290775971797018</v>
+        <v>13.24582882052948</v>
       </c>
       <c r="L21">
-        <v>11.2911167952115</v>
+        <v>7.175522533321012</v>
       </c>
       <c r="M21">
-        <v>15.16113055037004</v>
+        <v>11.37406853167168</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.33558525590808</v>
+        <v>16.33907056374734</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.67604419550817</v>
+        <v>17.18712373096384</v>
       </c>
       <c r="C22">
-        <v>11.71534291834991</v>
+        <v>8.383077268652441</v>
       </c>
       <c r="D22">
-        <v>9.634685295570803</v>
+        <v>7.16395060532207</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>35.08220590559406</v>
+        <v>23.22818115534178</v>
       </c>
       <c r="G22">
-        <v>37.37422624000929</v>
+        <v>25.95598353891793</v>
       </c>
       <c r="H22">
-        <v>16.51772588335298</v>
+        <v>9.713011105312441</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.18238398071621</v>
+        <v>6.372260195312587</v>
       </c>
       <c r="K22">
-        <v>9.442977496666659</v>
+        <v>13.64299302451863</v>
       </c>
       <c r="L22">
-        <v>11.29351640722532</v>
+        <v>7.258982950277458</v>
       </c>
       <c r="M22">
-        <v>15.20265102303489</v>
+        <v>11.64225111019344</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.27836464572398</v>
+        <v>16.29423379510656</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.57305729702675</v>
+        <v>16.87063348777793</v>
       </c>
       <c r="C23">
-        <v>11.72194436656257</v>
+        <v>8.40159142348087</v>
       </c>
       <c r="D23">
-        <v>9.626180504863232</v>
+        <v>7.089906732400333</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>35.11119154033236</v>
+        <v>23.17754868449659</v>
       </c>
       <c r="G23">
-        <v>37.4127428074376</v>
+        <v>25.89367453664955</v>
       </c>
       <c r="H23">
-        <v>16.5355775360808</v>
+        <v>9.742855978827183</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.19122689653909</v>
+        <v>6.397328541009332</v>
       </c>
       <c r="K23">
-        <v>9.362011387435246</v>
+        <v>13.43241898450643</v>
       </c>
       <c r="L23">
-        <v>11.29214602804279</v>
+        <v>7.214357817849863</v>
       </c>
       <c r="M23">
-        <v>15.18038010556398</v>
+        <v>11.49962897265487</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.30854612784759</v>
+        <v>16.31694359560139</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>13.17809652176554</v>
+        <v>15.61832294107496</v>
       </c>
       <c r="C24">
-        <v>11.7484123792231</v>
+        <v>8.475103800549872</v>
       </c>
       <c r="D24">
-        <v>9.59606204393593</v>
+        <v>6.806981420244856</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>35.23266088261747</v>
+        <v>23.02252483345548</v>
       </c>
       <c r="G24">
-        <v>37.57437252042136</v>
+        <v>25.71434075723156</v>
       </c>
       <c r="H24">
-        <v>16.60699379803006</v>
+        <v>9.866590410840688</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.22611185787576</v>
+        <v>6.494577985612626</v>
       </c>
       <c r="K24">
-        <v>9.049760201932019</v>
+        <v>12.60423177015797</v>
       </c>
       <c r="L24">
-        <v>11.28893220863911</v>
+        <v>7.04721216446864</v>
       </c>
       <c r="M24">
-        <v>15.09850482603282</v>
+        <v>10.94857679336877</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.43072099416065</v>
+        <v>16.42904812236923</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.74381228344102</v>
+        <v>14.15129383441793</v>
       </c>
       <c r="C25">
-        <v>11.78011096531403</v>
+        <v>8.561474816659695</v>
       </c>
       <c r="D25">
-        <v>9.568146360771273</v>
+        <v>6.497944689833439</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>35.38861830196211</v>
+        <v>22.92943129124316</v>
       </c>
       <c r="G25">
-        <v>37.78220895503475</v>
+        <v>25.63380443114029</v>
       </c>
       <c r="H25">
-        <v>16.69217270055344</v>
+        <v>10.02136265625519</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.26673564051259</v>
+        <v>6.604503506312769</v>
       </c>
       <c r="K25">
-        <v>8.702687433664016</v>
+        <v>11.64614709942114</v>
       </c>
       <c r="L25">
-        <v>11.28972758570025</v>
+        <v>6.871494963251304</v>
       </c>
       <c r="M25">
-        <v>15.01572635981742</v>
+        <v>10.33342754034209</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.57929661637836</v>
+        <v>16.60129805233059</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.96942157025145</v>
+        <v>18.29275775269723</v>
       </c>
       <c r="C2">
-        <v>8.6310135890794</v>
+        <v>14.44601677859341</v>
       </c>
       <c r="D2">
-        <v>6.268704440735838</v>
+        <v>4.814693944840906</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>22.92002451970115</v>
+        <v>14.35411365474315</v>
       </c>
       <c r="G2">
-        <v>25.66299719310794</v>
+        <v>16.3567528332084</v>
       </c>
       <c r="H2">
-        <v>10.1522441014157</v>
+        <v>1.885178552806015</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.39183109344409</v>
       </c>
       <c r="J2">
-        <v>6.6898799301652</v>
+        <v>7.108668142854485</v>
       </c>
       <c r="K2">
-        <v>10.88615821954914</v>
+        <v>10.55866033799871</v>
       </c>
       <c r="L2">
-        <v>6.746624473469567</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>9.865600279752165</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.76806927854232</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>28.28979794443303</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>10.99491826543267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.10415057032444</v>
+        <v>17.20872826555895</v>
       </c>
       <c r="C3">
-        <v>8.681787200704472</v>
+        <v>13.8061153012551</v>
       </c>
       <c r="D3">
-        <v>6.113209610998608</v>
+        <v>4.575814235043336</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>22.94812845053284</v>
+        <v>13.95879676167291</v>
       </c>
       <c r="G3">
-        <v>25.73348211772362</v>
+        <v>15.81887325686444</v>
       </c>
       <c r="H3">
-        <v>10.25087114690306</v>
+        <v>1.650243534606751</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.254219250865074</v>
       </c>
       <c r="J3">
-        <v>6.750567167533244</v>
+        <v>7.136249089301298</v>
       </c>
       <c r="K3">
-        <v>10.33801619562033</v>
+        <v>10.76507867390722</v>
       </c>
       <c r="L3">
-        <v>6.665101076660241</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>9.541075021071984</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.90402868263242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>26.49542479700048</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>10.92363376705391</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.54087423706005</v>
+        <v>16.5044820569412</v>
       </c>
       <c r="C4">
-        <v>8.714743076031089</v>
+        <v>13.39973271944458</v>
       </c>
       <c r="D4">
-        <v>6.018003416094442</v>
+        <v>4.422576795654382</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>22.98157105517146</v>
+        <v>13.7206833648819</v>
       </c>
       <c r="G4">
-        <v>25.80024535695025</v>
+        <v>15.49432763501303</v>
       </c>
       <c r="H4">
-        <v>10.31613541720072</v>
+        <v>1.620788726744548</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.167377304534935</v>
       </c>
       <c r="J4">
-        <v>6.789242569838478</v>
+        <v>7.156767812099178</v>
       </c>
       <c r="K4">
-        <v>9.985586438966349</v>
+        <v>10.89646598291232</v>
       </c>
       <c r="L4">
-        <v>6.61667018704869</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>9.33883700421972</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.99820239979127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>25.3334150564205</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>10.88735450890955</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.30324949234456</v>
+        <v>16.20758287011883</v>
       </c>
       <c r="C5">
-        <v>8.72861810858207</v>
+        <v>13.24152968273652</v>
       </c>
       <c r="D5">
-        <v>5.979326720121033</v>
+        <v>4.36028698336787</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>22.99914648261112</v>
+        <v>13.61686245930874</v>
       </c>
       <c r="G5">
-        <v>25.83313014489512</v>
+        <v>15.34872643117477</v>
       </c>
       <c r="H5">
-        <v>10.3438881878492</v>
+        <v>1.683940817462036</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.131740003626243</v>
       </c>
       <c r="J5">
-        <v>6.805361105674419</v>
+        <v>7.163817086718094</v>
       </c>
       <c r="K5">
-        <v>9.838065234068329</v>
+        <v>10.94670544629785</v>
       </c>
       <c r="L5">
-        <v>6.597356766259968</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>9.255792330777036</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.03917982723173</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>24.84466838447554</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>10.86858560515272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.2646270669141</v>
+        <v>16.15737742174535</v>
       </c>
       <c r="C6">
-        <v>8.73094886988736</v>
+        <v>13.22812914478433</v>
       </c>
       <c r="D6">
-        <v>5.972913351494603</v>
+        <v>4.352014694294485</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>23.00229966177188</v>
+        <v>13.58982879162611</v>
       </c>
       <c r="G6">
-        <v>25.83892694536113</v>
+        <v>15.30634485020354</v>
       </c>
       <c r="H6">
-        <v>10.34856565454021</v>
+        <v>1.694560643668623</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.126394025599488</v>
       </c>
       <c r="J6">
-        <v>6.808059275257946</v>
+        <v>7.162371909536004</v>
       </c>
       <c r="K6">
-        <v>9.813336611974295</v>
+        <v>10.94970452929661</v>
       </c>
       <c r="L6">
-        <v>6.594175702529737</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>9.24196834114262</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.04613867839684</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>24.76249721825609</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>10.85847053186064</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.53770233449648</v>
+        <v>16.49966173063965</v>
       </c>
       <c r="C7">
-        <v>8.714928399926134</v>
+        <v>13.43279901924964</v>
       </c>
       <c r="D7">
-        <v>6.017481248951611</v>
+        <v>4.42756926940862</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>22.98179226423179</v>
+        <v>13.69255519687822</v>
       </c>
       <c r="G7">
-        <v>25.80066616204877</v>
+        <v>15.44289216908648</v>
       </c>
       <c r="H7">
-        <v>10.31650504968445</v>
+        <v>1.621812007466876</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.168280949492538</v>
       </c>
       <c r="J7">
-        <v>6.789458497045671</v>
+        <v>7.149578695025907</v>
       </c>
       <c r="K7">
-        <v>9.983612591995916</v>
+        <v>10.88231670942595</v>
       </c>
       <c r="L7">
-        <v>6.616407990651801</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>9.337719427097415</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.99874461859542</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>25.32661428443834</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>10.86773191797854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.67769305640443</v>
+        <v>17.92604893294435</v>
       </c>
       <c r="C8">
-        <v>8.648149166133381</v>
+        <v>14.27267378658368</v>
       </c>
       <c r="D8">
-        <v>6.21506549253728</v>
+        <v>4.741011151228113</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>22.92628158249912</v>
+        <v>14.18279268840646</v>
       </c>
       <c r="G8">
-        <v>25.68228942975532</v>
+        <v>16.1074149834156</v>
       </c>
       <c r="H8">
-        <v>10.18525729840091</v>
+        <v>1.804819070174194</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.346365657758124</v>
       </c>
       <c r="J8">
-        <v>6.710513178547344</v>
+        <v>7.107807494139806</v>
       </c>
       <c r="K8">
-        <v>10.700499000005</v>
+        <v>10.60906996058687</v>
       </c>
       <c r="L8">
-        <v>6.718186584827373</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>9.754389825738969</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.81267423569793</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>27.68328263978865</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>10.94342027324188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.66114777531857</v>
+        <v>20.41569685376458</v>
       </c>
       <c r="C9">
-        <v>8.531448371545205</v>
+        <v>15.74915551421814</v>
       </c>
       <c r="D9">
-        <v>6.602423360781088</v>
+        <v>5.292705230828389</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>22.95128881592548</v>
+        <v>15.22089501586629</v>
       </c>
       <c r="G9">
-        <v>25.6465984313279</v>
+        <v>17.53168826912624</v>
       </c>
       <c r="H9">
-        <v>9.966509625242882</v>
+        <v>2.369104356451736</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.67586015351893</v>
       </c>
       <c r="J9">
-        <v>6.566793121604151</v>
+        <v>7.068801798774034</v>
       </c>
       <c r="K9">
-        <v>11.97745025150022</v>
+        <v>10.13863505310556</v>
       </c>
       <c r="L9">
-        <v>6.930023934617051</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>10.54317294585955</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.53679740874553</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>31.82757811807176</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>11.18776193057626</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.96729167781601</v>
+        <v>22.26670247849699</v>
       </c>
       <c r="C10">
-        <v>8.454586653651186</v>
+        <v>16.92338910437793</v>
       </c>
       <c r="D10">
-        <v>6.88414711137075</v>
+        <v>5.690534919832108</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>23.05855856359251</v>
+        <v>15.86682523447652</v>
       </c>
       <c r="G10">
-        <v>25.75374000875696</v>
+        <v>18.35940965083069</v>
       </c>
       <c r="H10">
-        <v>9.831258990198966</v>
+        <v>2.707961185950643</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.906187717859825</v>
       </c>
       <c r="J10">
-        <v>6.467792011634349</v>
+        <v>7.019684805310994</v>
       </c>
       <c r="K10">
-        <v>12.83415295945173</v>
+        <v>9.73081078777737</v>
       </c>
       <c r="L10">
-        <v>7.092245918962113</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>11.09989908780684</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.39437656487145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>33.69894157355434</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>11.30493754775582</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.52924633860178</v>
+        <v>24.87782122195509</v>
       </c>
       <c r="C11">
-        <v>8.421595702551301</v>
+        <v>18.77764695272923</v>
       </c>
       <c r="D11">
-        <v>7.011155927150707</v>
+        <v>6.076121215375253</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>23.12817043685983</v>
+        <v>15.12316105231332</v>
       </c>
       <c r="G11">
-        <v>25.83425849962667</v>
+        <v>16.87857628417715</v>
       </c>
       <c r="H11">
-        <v>9.775722507221342</v>
+        <v>3.150435005993768</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.999349251612634</v>
       </c>
       <c r="J11">
-        <v>6.42414781001091</v>
+        <v>6.668686400213921</v>
       </c>
       <c r="K11">
-        <v>13.20582627765982</v>
+        <v>8.885336342598048</v>
       </c>
       <c r="L11">
-        <v>7.167284341604659</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>11.34725266744186</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.34405592322869</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>27.00752993783827</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>10.53053348452977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.73745749229345</v>
+        <v>26.71659627133439</v>
       </c>
       <c r="C12">
-        <v>8.409391271255194</v>
+        <v>20.08650382632107</v>
       </c>
       <c r="D12">
-        <v>7.059045940866948</v>
+        <v>6.314217654678171</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>23.15764281535821</v>
+        <v>14.3860935153399</v>
       </c>
       <c r="G12">
-        <v>25.86954039289655</v>
+        <v>15.50872973284847</v>
       </c>
       <c r="H12">
-        <v>9.75559589261408</v>
+        <v>4.218964837901244</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>4.038219651626381</v>
       </c>
       <c r="J12">
-        <v>6.407818166481059</v>
+        <v>6.391150413744406</v>
       </c>
       <c r="K12">
-        <v>13.34395551107919</v>
+        <v>8.367564184133522</v>
       </c>
       <c r="L12">
-        <v>7.195862232541137</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>11.4400025370019</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.32720168475104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>21.02346572128181</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>9.871781144759586</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.69281887836074</v>
+        <v>28.12686155736682</v>
       </c>
       <c r="C13">
-        <v>8.412006802462846</v>
+        <v>21.12453947763749</v>
       </c>
       <c r="D13">
-        <v>7.048741709854071</v>
+        <v>6.466429256443283</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.15115515707461</v>
+        <v>13.55046636336818</v>
       </c>
       <c r="G13">
-        <v>25.86172527621893</v>
+        <v>14.02783040378953</v>
       </c>
       <c r="H13">
-        <v>9.759889609463999</v>
+        <v>5.472274448246211</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>4.0396452422143</v>
       </c>
       <c r="J13">
-        <v>6.411326307507695</v>
+        <v>6.141715622132462</v>
       </c>
       <c r="K13">
-        <v>13.31432347019388</v>
+        <v>8.064693775812801</v>
       </c>
       <c r="L13">
-        <v>7.189700500855898</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>11.42006899494457</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.33073168040913</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>15.06049617462634</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>9.225566153500576</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.5464677090584</v>
+        <v>28.93961283144419</v>
       </c>
       <c r="C14">
-        <v>8.420585825791914</v>
+        <v>21.75051939614042</v>
       </c>
       <c r="D14">
-        <v>7.015100202885948</v>
+        <v>6.537332466525752</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>23.13053211303862</v>
+        <v>12.90537774421609</v>
       </c>
       <c r="G14">
-        <v>25.8370638991719</v>
+        <v>12.90940770712568</v>
       </c>
       <c r="H14">
-        <v>9.774048309261575</v>
+        <v>6.46858910203103</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>4.025259014006163</v>
       </c>
       <c r="J14">
-        <v>6.422800418168015</v>
+        <v>5.979457322148867</v>
       </c>
       <c r="K14">
-        <v>13.21724275782178</v>
+        <v>7.969521573952355</v>
       </c>
       <c r="L14">
-        <v>7.169632297391606</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>11.35490200404453</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.34262449358116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>10.89563491028527</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>8.774333526852185</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.45622710153865</v>
+        <v>29.04904579571264</v>
       </c>
       <c r="C15">
-        <v>8.425878446252542</v>
+        <v>21.85748731901578</v>
       </c>
       <c r="D15">
-        <v>6.994465917925173</v>
+        <v>6.53841886764542</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>23.1183086249451</v>
+        <v>12.71724133629936</v>
       </c>
       <c r="G15">
-        <v>25.82258849046669</v>
+        <v>12.59308459212879</v>
       </c>
       <c r="H15">
-        <v>9.782839945191631</v>
+        <v>6.709757428490469</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>4.013183741995408</v>
       </c>
       <c r="J15">
-        <v>6.429854279078503</v>
+        <v>5.944289125284373</v>
       </c>
       <c r="K15">
-        <v>13.15743694773133</v>
+        <v>7.979236198656636</v>
       </c>
       <c r="L15">
-        <v>7.1573606261421</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>11.31486397071153</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.35019949531208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>9.882333102989717</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>8.662133431803785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.9299220631332</v>
+        <v>28.12324397724509</v>
       </c>
       <c r="C16">
-        <v>8.456782800018674</v>
+        <v>21.24611904746002</v>
       </c>
       <c r="D16">
-        <v>6.875820143793822</v>
+        <v>6.357378156063066</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>23.05443833815756</v>
+        <v>12.53959540360432</v>
       </c>
       <c r="G16">
-        <v>25.74913653536058</v>
+        <v>12.39155571868985</v>
       </c>
       <c r="H16">
-        <v>9.835012523085384</v>
+        <v>6.494695205655253</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.915741291109617</v>
       </c>
       <c r="J16">
-        <v>6.470672041560296</v>
+        <v>6.011260185944665</v>
       </c>
       <c r="K16">
-        <v>12.80949817720352</v>
+        <v>8.216498248806726</v>
       </c>
       <c r="L16">
-        <v>7.087365592988333</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>11.08360907002964</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.39796646847444</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>9.832965014693055</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>8.716552492747061</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.59883039781839</v>
+        <v>26.93928128019156</v>
       </c>
       <c r="C17">
-        <v>8.476250373490929</v>
+        <v>20.41898291841228</v>
       </c>
       <c r="D17">
-        <v>6.802710763632396</v>
+        <v>6.176318844578855</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>23.02067268096252</v>
+        <v>12.76207363254318</v>
       </c>
       <c r="G17">
-        <v>25.71237570360591</v>
+        <v>12.86578380483754</v>
       </c>
       <c r="H17">
-        <v>9.868582102398173</v>
+        <v>5.737621526606141</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.848006889190116</v>
       </c>
       <c r="J17">
-        <v>6.49606700068281</v>
+        <v>6.148446405276894</v>
       </c>
       <c r="K17">
-        <v>12.59140996339912</v>
+        <v>8.438686137901376</v>
       </c>
       <c r="L17">
-        <v>7.044732553675851</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>10.94017774360215</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.43105978463459</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>12.07237234655823</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>9.00086663498119</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.40536015824068</v>
+        <v>25.40866128055391</v>
       </c>
       <c r="C18">
-        <v>8.48763308767734</v>
+        <v>19.29578691247795</v>
       </c>
       <c r="D18">
-        <v>6.760554238182219</v>
+        <v>5.972272411525944</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.00320382117096</v>
+        <v>13.36919016089007</v>
       </c>
       <c r="G18">
-        <v>25.69421028314329</v>
+        <v>14.00407363728634</v>
       </c>
       <c r="H18">
-        <v>9.888451485258097</v>
+        <v>4.428065635863852</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.800711050560003</v>
       </c>
       <c r="J18">
-        <v>6.510804681632136</v>
+        <v>6.366820422876994</v>
       </c>
       <c r="K18">
-        <v>12.46427356247356</v>
+        <v>8.733184821841524</v>
       </c>
       <c r="L18">
-        <v>7.02032909388735</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>10.85712761964603</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.45144839925763</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.73572698642641</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>9.526990928579803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.33933186209386</v>
+        <v>23.73355858428001</v>
       </c>
       <c r="C19">
-        <v>8.491518799389873</v>
+        <v>18.10789006693892</v>
       </c>
       <c r="D19">
-        <v>6.746263854586891</v>
+        <v>5.777212216224499</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>22.99762078875598</v>
+        <v>14.1878380028147</v>
       </c>
       <c r="G19">
-        <v>25.68856445194019</v>
+        <v>15.49574244605195</v>
       </c>
       <c r="H19">
-        <v>9.895274032216578</v>
+        <v>3.142488838979349</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.786035640220885</v>
       </c>
       <c r="J19">
-        <v>6.515817218160973</v>
+        <v>6.624887572730191</v>
       </c>
       <c r="K19">
-        <v>12.42093652037337</v>
+        <v>9.129739552500675</v>
       </c>
       <c r="L19">
-        <v>7.012087258451502</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>10.82891567472374</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.45858062016204</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>23.04064048743796</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>10.17856616954748</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.63438947431247</v>
+        <v>21.80310658830949</v>
       </c>
       <c r="C20">
-        <v>8.474158787836839</v>
+        <v>16.72117689211749</v>
       </c>
       <c r="D20">
-        <v>6.810504650218851</v>
+        <v>5.604721749596368</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>23.02406417012667</v>
+        <v>15.61836412210154</v>
       </c>
       <c r="G20">
-        <v>25.71597906938246</v>
+        <v>17.99974523914025</v>
       </c>
       <c r="H20">
-        <v>9.864950198791325</v>
+        <v>2.615961386532855</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.852411507869945</v>
       </c>
       <c r="J20">
-        <v>6.493350107617093</v>
+        <v>7.007181331722853</v>
       </c>
       <c r="K20">
-        <v>12.61480171969361</v>
+        <v>9.7857113165737</v>
       </c>
       <c r="L20">
-        <v>7.049258826391879</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>10.9555039322793</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.42739592909416</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>33.17814698969834</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>11.2099438383069</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.58957878187817</v>
+        <v>22.83342814567169</v>
       </c>
       <c r="C21">
-        <v>8.418058088707005</v>
+        <v>17.3446866544738</v>
       </c>
       <c r="D21">
-        <v>7.024987408020881</v>
+        <v>5.858066694901039</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>23.13650421688045</v>
+        <v>16.31614895714053</v>
       </c>
       <c r="G21">
-        <v>25.84417578616637</v>
+        <v>18.99767159413154</v>
       </c>
       <c r="H21">
-        <v>9.769864671190994</v>
+        <v>2.961493049839222</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.028762406126833</v>
       </c>
       <c r="J21">
-        <v>6.41942485581079</v>
+        <v>7.039056939642796</v>
       </c>
       <c r="K21">
-        <v>13.24582882052948</v>
+        <v>9.616159352690319</v>
       </c>
       <c r="L21">
-        <v>7.175522533321012</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>11.37406853167168</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.33907056374734</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>35.90315495921098</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>11.47185724697394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.18712373096384</v>
+        <v>23.58244258747649</v>
       </c>
       <c r="C22">
-        <v>8.383077268652441</v>
+        <v>17.77813234883821</v>
       </c>
       <c r="D22">
-        <v>7.16395060532207</v>
+        <v>6.023811261586509</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>23.22818115534178</v>
+        <v>16.74027569768015</v>
       </c>
       <c r="G22">
-        <v>25.95598353891793</v>
+        <v>19.59114707097353</v>
       </c>
       <c r="H22">
-        <v>9.713011105312441</v>
+        <v>3.154499318382167</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.138674016933882</v>
       </c>
       <c r="J22">
-        <v>6.372260195312587</v>
+        <v>7.054462147947335</v>
       </c>
       <c r="K22">
-        <v>13.64299302451863</v>
+        <v>9.490928157519951</v>
       </c>
       <c r="L22">
-        <v>7.258982950277458</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>11.64225111019344</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.29423379510656</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>37.17528741612666</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>11.62597666757049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.87063348777793</v>
+        <v>23.18644275574081</v>
       </c>
       <c r="C23">
-        <v>8.40159142348087</v>
+        <v>17.51443665716734</v>
       </c>
       <c r="D23">
-        <v>7.089906732400333</v>
+        <v>5.930512431106375</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>23.17754868449659</v>
+        <v>16.54007816301225</v>
       </c>
       <c r="G23">
-        <v>25.89367453664955</v>
+        <v>19.32136785934391</v>
       </c>
       <c r="H23">
-        <v>9.742855978827183</v>
+        <v>3.051874649650701</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.077718794333509</v>
       </c>
       <c r="J23">
-        <v>6.397328541009332</v>
+        <v>7.054240121555116</v>
       </c>
       <c r="K23">
-        <v>13.43241898450643</v>
+        <v>9.575543767926408</v>
       </c>
       <c r="L23">
-        <v>7.214357817849863</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>11.49962897265487</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.31694359560139</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>36.50121157300731</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>11.56409941391499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.61832294107496</v>
+        <v>21.6162863486929</v>
       </c>
       <c r="C24">
-        <v>8.475103800549872</v>
+        <v>16.53824588715236</v>
       </c>
       <c r="D24">
-        <v>6.806981420244856</v>
+        <v>5.572608692975813</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>23.02252483345548</v>
+        <v>15.74278054390886</v>
       </c>
       <c r="G24">
-        <v>25.71434075723156</v>
+        <v>18.22825830603857</v>
       </c>
       <c r="H24">
-        <v>9.866590410840688</v>
+        <v>2.657556393362842</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.847216624996171</v>
       </c>
       <c r="J24">
-        <v>6.494577985612626</v>
+        <v>7.049205832499637</v>
       </c>
       <c r="K24">
-        <v>12.60423177015797</v>
+        <v>9.879467100106766</v>
       </c>
       <c r="L24">
-        <v>7.04721216446864</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>10.94857679336877</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.42904812236923</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>33.84495585516823</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>11.31350567626002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.15129383441793</v>
+        <v>19.77430701713053</v>
       </c>
       <c r="C25">
-        <v>8.561474816659695</v>
+        <v>15.41917806949114</v>
       </c>
       <c r="D25">
-        <v>6.497944689833439</v>
+        <v>5.158579795559053</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>22.92943129124316</v>
+        <v>14.89333458361028</v>
       </c>
       <c r="G25">
-        <v>25.63380443114029</v>
+        <v>17.06302487305162</v>
       </c>
       <c r="H25">
-        <v>10.02136265625519</v>
+        <v>2.219467151319377</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.591480297076005</v>
       </c>
       <c r="J25">
-        <v>6.604503506312769</v>
+        <v>7.062883411859652</v>
       </c>
       <c r="K25">
-        <v>11.64614709942114</v>
+        <v>10.23417660761267</v>
       </c>
       <c r="L25">
-        <v>6.871494963251304</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>10.33342754034209</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.60129805233059</v>
+        <v>30.7569927907788</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>11.08085716578686</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_35/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.29275775269723</v>
+        <v>18.27238084250009</v>
       </c>
       <c r="C2">
-        <v>14.44601677859341</v>
+        <v>14.58683239700185</v>
       </c>
       <c r="D2">
-        <v>4.814693944840906</v>
+        <v>4.873606627885384</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>14.35411365474315</v>
+        <v>14.22500356062074</v>
       </c>
       <c r="G2">
-        <v>16.3567528332084</v>
+        <v>15.40572838086144</v>
       </c>
       <c r="H2">
-        <v>1.885178552806015</v>
+        <v>1.880780681702853</v>
       </c>
       <c r="I2">
-        <v>3.39183109344409</v>
+        <v>3.365929817883134</v>
       </c>
       <c r="J2">
-        <v>7.108668142854485</v>
+        <v>7.820577688608374</v>
       </c>
       <c r="K2">
-        <v>10.55866033799871</v>
+        <v>10.48888403192037</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>10.03942180876314</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.471624812239126</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>28.28979794443303</v>
+        <v>0</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
       <c r="Q2">
-        <v>10.99491826543267</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>28.28307675273476</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>10.93218238144228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.20872826555895</v>
+        <v>17.19959489225235</v>
       </c>
       <c r="C3">
-        <v>13.8061153012551</v>
+        <v>13.8522427294477</v>
       </c>
       <c r="D3">
-        <v>4.575814235043336</v>
+        <v>4.619363584936412</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13.95879676167291</v>
+        <v>13.87826796444239</v>
       </c>
       <c r="G3">
-        <v>15.81887325686444</v>
+        <v>14.91083580887639</v>
       </c>
       <c r="H3">
-        <v>1.650243534606751</v>
+        <v>1.648353097391947</v>
       </c>
       <c r="I3">
-        <v>3.254219250865074</v>
+        <v>3.243473285135571</v>
       </c>
       <c r="J3">
-        <v>7.136249089301298</v>
+        <v>7.832671225895484</v>
       </c>
       <c r="K3">
-        <v>10.76507867390722</v>
+        <v>10.70153068968022</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.24030622475576</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.61813341214315</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.49542479700048</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.92363376705391</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>26.49248748653372</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>10.89074095351904</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.5044820569412</v>
+        <v>16.5028928548281</v>
       </c>
       <c r="C4">
-        <v>13.39973271944458</v>
+        <v>13.38521305982403</v>
       </c>
       <c r="D4">
-        <v>4.422576795654382</v>
+        <v>4.456233336364273</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>13.7206833648819</v>
+        <v>13.66899563009633</v>
       </c>
       <c r="G4">
-        <v>15.49432763501303</v>
+        <v>14.61328541717155</v>
       </c>
       <c r="H4">
-        <v>1.620788726744548</v>
+        <v>1.62111605005718</v>
       </c>
       <c r="I4">
-        <v>3.167377304534935</v>
+        <v>3.1663218071741</v>
       </c>
       <c r="J4">
-        <v>7.156767812099178</v>
+        <v>7.841577476569141</v>
       </c>
       <c r="K4">
-        <v>10.89646598291232</v>
+        <v>10.8353975365033</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>10.36945493441909</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.731057524611095</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.3334150564205</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>10.88735450890955</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>25.33291212881078</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>10.87125548610936</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.20758287011883</v>
+        <v>16.20924646731079</v>
       </c>
       <c r="C5">
-        <v>13.24152968273652</v>
+        <v>13.20172229179182</v>
       </c>
       <c r="D5">
-        <v>4.36028698336787</v>
+        <v>4.389758996089784</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>13.61686245930874</v>
+        <v>13.57687891087384</v>
       </c>
       <c r="G5">
-        <v>15.34872643117477</v>
+        <v>14.47867582382515</v>
       </c>
       <c r="H5">
-        <v>1.683940817462036</v>
+        <v>1.683602542402756</v>
       </c>
       <c r="I5">
-        <v>3.131740003626243</v>
+        <v>3.134972814354019</v>
       </c>
       <c r="J5">
-        <v>7.163817086718094</v>
+        <v>7.843541665212495</v>
       </c>
       <c r="K5">
-        <v>10.94670544629785</v>
+        <v>10.88657194438618</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>10.41926316124674</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.780918314263799</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>24.84466838447554</v>
+        <v>0</v>
       </c>
       <c r="P5">
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>10.86858560515272</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>24.84519137813927</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>10.859145093765</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.15737742174535</v>
+        <v>16.1595964712519</v>
       </c>
       <c r="C6">
-        <v>13.22812914478433</v>
+        <v>13.18409849108733</v>
       </c>
       <c r="D6">
-        <v>4.352014694294485</v>
+        <v>4.380732254490701</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>13.58982879162611</v>
+        <v>13.55207042505394</v>
       </c>
       <c r="G6">
-        <v>15.30634485020354</v>
+        <v>14.43800961561798</v>
       </c>
       <c r="H6">
-        <v>1.694560643668623</v>
+        <v>1.694110369472784</v>
       </c>
       <c r="I6">
-        <v>3.126394025599488</v>
+        <v>3.130676238093717</v>
       </c>
       <c r="J6">
-        <v>7.162371909536004</v>
+        <v>7.841411615840441</v>
       </c>
       <c r="K6">
-        <v>10.94970452929661</v>
+        <v>10.89000417093219</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>10.42241702723498</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.787513916859867</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>24.76249721825609</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10.85847053186064</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>24.76319411078757</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>10.85036250648925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.49966173063965</v>
+        <v>16.4977523016645</v>
       </c>
       <c r="C7">
-        <v>13.43279901924964</v>
+        <v>13.41269332097477</v>
       </c>
       <c r="D7">
-        <v>4.42756926940862</v>
+        <v>4.464600451239603</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>13.69255519687822</v>
+        <v>13.62656924821067</v>
       </c>
       <c r="G7">
-        <v>15.44289216908648</v>
+        <v>14.65878929724761</v>
       </c>
       <c r="H7">
-        <v>1.621812007466876</v>
+        <v>1.622205337222077</v>
       </c>
       <c r="I7">
-        <v>3.168280949492538</v>
+        <v>3.167663219553118</v>
       </c>
       <c r="J7">
-        <v>7.149578695025907</v>
+        <v>7.799097937716399</v>
       </c>
       <c r="K7">
-        <v>10.88231670942595</v>
+        <v>10.81766726409965</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>10.35187349889011</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.723559453120707</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>25.32661428443834</v>
+        <v>0</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>10.86773191797854</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>25.32600992705655</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>10.84163612097065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.92604893294435</v>
+        <v>17.90834795434584</v>
       </c>
       <c r="C8">
-        <v>14.27267378658368</v>
+        <v>14.36492766893499</v>
       </c>
       <c r="D8">
-        <v>4.741011151228113</v>
+        <v>4.805776594060689</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>14.18279268840646</v>
+        <v>14.0225331894143</v>
       </c>
       <c r="G8">
-        <v>16.1074149834156</v>
+        <v>15.4812167906361</v>
       </c>
       <c r="H8">
-        <v>1.804819070174194</v>
+        <v>1.801048978496518</v>
       </c>
       <c r="I8">
-        <v>3.346365657758124</v>
+        <v>3.325221857223673</v>
       </c>
       <c r="J8">
-        <v>7.107807494139806</v>
+        <v>7.698947340805275</v>
       </c>
       <c r="K8">
-        <v>10.60906996058687</v>
+        <v>10.52859447703739</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>10.07853725949512</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.496295429304775</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>27.68328263978865</v>
+        <v>0</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>10.94342027324188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>27.67749197155969</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>10.85680996185556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.41569685376458</v>
+        <v>20.37290461137207</v>
       </c>
       <c r="C9">
-        <v>15.74915551421814</v>
+        <v>16.05954170446181</v>
       </c>
       <c r="D9">
-        <v>5.292705230828389</v>
+        <v>5.395037594077639</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>15.22089501586629</v>
+        <v>14.92502722611739</v>
       </c>
       <c r="G9">
-        <v>17.53168826912624</v>
+        <v>16.85918229107207</v>
       </c>
       <c r="H9">
-        <v>2.369104356451736</v>
+        <v>2.359177750407838</v>
       </c>
       <c r="I9">
-        <v>3.67586015351893</v>
+        <v>3.617813151786902</v>
       </c>
       <c r="J9">
-        <v>7.068801798774034</v>
+        <v>7.653139144067032</v>
       </c>
       <c r="K9">
-        <v>10.13863505310556</v>
+        <v>10.02903678094472</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>9.626027338504372</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.268763127378933</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>31.82757811807176</v>
+        <v>0</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.18776193057626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>31.81272430348502</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>11.00879039957416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.26670247849699</v>
+        <v>22.20682821115067</v>
       </c>
       <c r="C10">
-        <v>16.92338910437793</v>
+        <v>17.34082754323839</v>
       </c>
       <c r="D10">
-        <v>5.690534919832108</v>
+        <v>5.832166459878136</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>15.86682523447652</v>
+        <v>15.40728968501491</v>
       </c>
       <c r="G10">
-        <v>18.35940965083069</v>
+        <v>18.15556528199775</v>
       </c>
       <c r="H10">
-        <v>2.707961185950643</v>
+        <v>2.693382811581654</v>
       </c>
       <c r="I10">
-        <v>3.906187717859825</v>
+        <v>3.821440373240832</v>
       </c>
       <c r="J10">
-        <v>7.019684805310994</v>
+        <v>7.401555202959888</v>
       </c>
       <c r="K10">
-        <v>9.73081078777737</v>
+        <v>9.583370492569225</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>9.267149970984878</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.131619606063831</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.69894157355434</v>
+        <v>0</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>11.30493754775582</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>33.67727499703944</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>11.00464649520214</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>24.87782122195509</v>
+        <v>24.8126777687421</v>
       </c>
       <c r="C11">
-        <v>18.77764695272923</v>
+        <v>19.06937923864882</v>
       </c>
       <c r="D11">
-        <v>6.076121215375253</v>
+        <v>6.241455126428531</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>15.12316105231332</v>
+        <v>14.57897881486547</v>
       </c>
       <c r="G11">
-        <v>16.87857628417715</v>
+        <v>17.89963759941831</v>
       </c>
       <c r="H11">
-        <v>3.150435005993768</v>
+        <v>3.138027144509465</v>
       </c>
       <c r="I11">
-        <v>3.999349251612634</v>
+        <v>3.902608670142676</v>
       </c>
       <c r="J11">
-        <v>6.668686400213921</v>
+        <v>6.775685405703808</v>
       </c>
       <c r="K11">
-        <v>8.885336342598048</v>
+        <v>8.840441805815102</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>8.840774888650397</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>4.447997574981358</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>27.00752993783827</v>
+        <v>0</v>
       </c>
       <c r="P11">
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>10.53053348452977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>26.98297675994225</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>10.18378910587798</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.71659627133439</v>
+        <v>26.65032671862409</v>
       </c>
       <c r="C12">
-        <v>20.08650382632107</v>
+        <v>20.25453401213464</v>
       </c>
       <c r="D12">
-        <v>6.314217654678171</v>
+        <v>6.481249155943303</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>14.3860935153399</v>
+        <v>13.85149654421857</v>
       </c>
       <c r="G12">
-        <v>15.50872973284847</v>
+        <v>17.1848006460956</v>
       </c>
       <c r="H12">
-        <v>4.218964837901244</v>
+        <v>4.210381748714999</v>
       </c>
       <c r="I12">
-        <v>4.038219651626381</v>
+        <v>3.935349310310347</v>
       </c>
       <c r="J12">
-        <v>6.391150413744406</v>
+        <v>6.464661799354188</v>
       </c>
       <c r="K12">
-        <v>8.367564184133522</v>
+        <v>8.430802462253574</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>8.650581939070561</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.974430433335482</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.02346572128181</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9.871781144759586</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>20.99684498885063</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>9.550542251299209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.12686155736682</v>
+        <v>28.06294443481488</v>
       </c>
       <c r="C13">
-        <v>21.12453947763749</v>
+        <v>21.17524283984894</v>
       </c>
       <c r="D13">
-        <v>6.466429256443283</v>
+        <v>6.609866905548333</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>13.55046636336818</v>
+        <v>13.13617173727694</v>
       </c>
       <c r="G13">
-        <v>14.02783040378953</v>
+        <v>15.75789994222468</v>
       </c>
       <c r="H13">
-        <v>5.472274448246211</v>
+        <v>5.466462574838337</v>
       </c>
       <c r="I13">
-        <v>4.0396452422143</v>
+        <v>3.936833528213114</v>
       </c>
       <c r="J13">
-        <v>6.141715622132462</v>
+        <v>6.360646842498284</v>
       </c>
       <c r="K13">
-        <v>8.064693775812801</v>
+        <v>8.22816168735439</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>8.577371409551967</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.660941189239813</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.06049617462634</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9.225566153500576</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>15.03115859858935</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>9.012891776684596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.93961283144419</v>
+        <v>28.87879977266567</v>
       </c>
       <c r="C14">
-        <v>21.75051939614042</v>
+        <v>21.72047564809915</v>
       </c>
       <c r="D14">
-        <v>6.537332466525752</v>
+        <v>6.652478425238101</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>12.90537774421609</v>
+        <v>12.62539173337821</v>
       </c>
       <c r="G14">
-        <v>12.90940770712568</v>
+        <v>14.41063437000063</v>
       </c>
       <c r="H14">
-        <v>6.46858910203103</v>
+        <v>6.472242008000273</v>
       </c>
       <c r="I14">
-        <v>4.025259014006163</v>
+        <v>3.925439139369836</v>
       </c>
       <c r="J14">
-        <v>5.979457322148867</v>
+        <v>6.359385706565353</v>
       </c>
       <c r="K14">
-        <v>7.969521573952355</v>
+        <v>8.181296327387891</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>8.567997971230806</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.544577082585423</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.89563491028527</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8.774333526852185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>10.86222675650656</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>8.672166504761526</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>29.04904579571264</v>
+        <v>28.98981171945277</v>
       </c>
       <c r="C15">
-        <v>21.85748731901578</v>
+        <v>21.80910499922375</v>
       </c>
       <c r="D15">
-        <v>6.53841886764542</v>
+        <v>6.641619570589738</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>12.71724133629936</v>
+        <v>12.49148670195543</v>
       </c>
       <c r="G15">
-        <v>12.59308459212879</v>
+        <v>13.92267031020885</v>
       </c>
       <c r="H15">
-        <v>6.709757428490469</v>
+        <v>6.713293719771526</v>
       </c>
       <c r="I15">
-        <v>4.013183741995408</v>
+        <v>3.915971014046333</v>
       </c>
       <c r="J15">
-        <v>5.944289125284373</v>
+        <v>6.38975810058739</v>
       </c>
       <c r="K15">
-        <v>7.979236198656636</v>
+        <v>8.197045086968346</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>8.574873704802876</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.546801039691964</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>9.882333102989717</v>
+        <v>0</v>
       </c>
       <c r="P15">
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>8.662133431803785</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>9.847694768983501</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>8.601358545210038</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>28.12324397724509</v>
+        <v>28.07213786790764</v>
       </c>
       <c r="C16">
-        <v>21.24611904746002</v>
+        <v>21.2134500359284</v>
       </c>
       <c r="D16">
-        <v>6.357378156063066</v>
+        <v>6.419540160015326</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>12.53959540360432</v>
+        <v>12.48711514740047</v>
       </c>
       <c r="G16">
-        <v>12.39155571868985</v>
+        <v>12.75435116877844</v>
       </c>
       <c r="H16">
-        <v>6.494695205655253</v>
+        <v>6.498056115100477</v>
       </c>
       <c r="I16">
-        <v>3.915741291109617</v>
+        <v>3.833433248415534</v>
       </c>
       <c r="J16">
-        <v>6.011260185944665</v>
+        <v>6.698339638025115</v>
       </c>
       <c r="K16">
-        <v>8.216498248806726</v>
+        <v>8.409480178490719</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>8.64723154133854</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.761463670905002</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>9.832965014693055</v>
+        <v>0</v>
       </c>
       <c r="P16">
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8.716552492747061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>9.802910421218346</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>8.771440647988669</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.93928128019156</v>
+        <v>26.8926550531721</v>
       </c>
       <c r="C17">
-        <v>20.41898291841228</v>
+        <v>20.43602824212363</v>
       </c>
       <c r="D17">
-        <v>6.176318844578855</v>
+        <v>6.227531083432638</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>12.76207363254318</v>
+        <v>12.74799234305028</v>
       </c>
       <c r="G17">
-        <v>12.86578380483754</v>
+        <v>12.74409511361143</v>
       </c>
       <c r="H17">
-        <v>5.737621526606141</v>
+        <v>5.74106256350648</v>
       </c>
       <c r="I17">
-        <v>3.848006889190116</v>
+        <v>3.77523912373072</v>
       </c>
       <c r="J17">
-        <v>6.148446405276894</v>
+        <v>6.927222088039141</v>
       </c>
       <c r="K17">
-        <v>8.438686137901376</v>
+        <v>8.604558847660451</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>8.731399954318622</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.961695071644803</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>12.07237234655823</v>
+        <v>0</v>
       </c>
       <c r="P17">
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9.00086663498119</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>12.04828146790795</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>9.07302365531701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.40866128055391</v>
+        <v>25.36387918427342</v>
       </c>
       <c r="C18">
-        <v>19.29578691247795</v>
+        <v>19.40514462398091</v>
       </c>
       <c r="D18">
-        <v>5.972272411525944</v>
+        <v>6.030795880731272</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>13.36919016089007</v>
+        <v>13.31132747825699</v>
       </c>
       <c r="G18">
-        <v>14.00407363728634</v>
+        <v>13.58263051581356</v>
       </c>
       <c r="H18">
-        <v>4.428065635863852</v>
+        <v>4.431933088373599</v>
       </c>
       <c r="I18">
-        <v>3.800711050560003</v>
+        <v>3.732910396814946</v>
       </c>
       <c r="J18">
-        <v>6.366820422876994</v>
+        <v>7.153679481294755</v>
       </c>
       <c r="K18">
-        <v>8.733184821841524</v>
+        <v>8.855222509580512</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>8.866517947064624</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>4.215599247560877</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.73572698642641</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9.526990928579803</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.71633343099646</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>9.55637492516769</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.73355858428001</v>
+        <v>23.68790869916683</v>
       </c>
       <c r="C19">
-        <v>18.10789006693892</v>
+        <v>18.33379523489753</v>
       </c>
       <c r="D19">
-        <v>5.777212216224499</v>
+        <v>5.853584311343955</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>14.1878380028147</v>
+        <v>14.03820279124478</v>
       </c>
       <c r="G19">
-        <v>15.49574244605195</v>
+        <v>14.86757136179351</v>
       </c>
       <c r="H19">
-        <v>3.142488838979349</v>
+        <v>3.13547466699397</v>
       </c>
       <c r="I19">
-        <v>3.786035640220885</v>
+        <v>3.72068275251572</v>
       </c>
       <c r="J19">
-        <v>6.624887572730191</v>
+        <v>7.372699533437654</v>
       </c>
       <c r="K19">
-        <v>9.129739552500675</v>
+        <v>9.179578871945884</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>9.05839130866287</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>4.549445133244493</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>23.04064048743796</v>
+        <v>0</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10.17856616954748</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>23.02319896474756</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>10.12925825656613</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.80310658830949</v>
+        <v>21.7485492004075</v>
       </c>
       <c r="C20">
-        <v>16.72117689211749</v>
+        <v>17.12593744509067</v>
       </c>
       <c r="D20">
-        <v>5.604721749596368</v>
+        <v>5.725243534729561</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>15.61836412210154</v>
+        <v>15.25294918534971</v>
       </c>
       <c r="G20">
-        <v>17.99974523914025</v>
+        <v>17.38179315296632</v>
       </c>
       <c r="H20">
-        <v>2.615961386532855</v>
+        <v>2.60281982772846</v>
       </c>
       <c r="I20">
-        <v>3.852411507869945</v>
+        <v>3.77881699572027</v>
       </c>
       <c r="J20">
-        <v>7.007181331722853</v>
+        <v>7.565995610692851</v>
       </c>
       <c r="K20">
-        <v>9.7857113165737</v>
+        <v>9.671035555169356</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>9.340564737924979</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.131174629901316</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>33.17814698969834</v>
+        <v>0</v>
       </c>
       <c r="P20">
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>11.2099438383069</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>33.15859491978855</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>10.98227769920354</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>22.83342814567169</v>
+        <v>22.76127565784671</v>
       </c>
       <c r="C21">
-        <v>17.3446866544738</v>
+        <v>17.77030662113673</v>
       </c>
       <c r="D21">
-        <v>5.858066694901039</v>
+        <v>6.065997163009722</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>16.31614895714053</v>
+        <v>15.55390598749897</v>
       </c>
       <c r="G21">
-        <v>18.99767159413154</v>
+        <v>20.21659725211241</v>
       </c>
       <c r="H21">
-        <v>2.961493049839222</v>
+        <v>2.943540640919913</v>
       </c>
       <c r="I21">
-        <v>4.028762406126833</v>
+        <v>3.928018183096176</v>
       </c>
       <c r="J21">
-        <v>7.039056939642796</v>
+        <v>6.85834095491225</v>
       </c>
       <c r="K21">
-        <v>9.616159352690319</v>
+        <v>9.359663814357729</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>9.098408983590414</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.083587606014746</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.90315495921098</v>
+        <v>0</v>
       </c>
       <c r="P21">
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>11.47185724697394</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>35.87655558703428</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>10.93433357443526</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>23.58244258747649</v>
+        <v>23.49959699069312</v>
       </c>
       <c r="C22">
-        <v>17.77813234883821</v>
+        <v>18.2052681699911</v>
       </c>
       <c r="D22">
-        <v>6.023811261586509</v>
+        <v>6.289491601939296</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>16.74027569768015</v>
+        <v>15.71157623032749</v>
       </c>
       <c r="G22">
-        <v>19.59114707097353</v>
+        <v>22.08465825671193</v>
       </c>
       <c r="H22">
-        <v>3.154499318382167</v>
+        <v>3.13348595075674</v>
       </c>
       <c r="I22">
-        <v>4.138674016933882</v>
+        <v>4.019614058949339</v>
       </c>
       <c r="J22">
-        <v>7.054462147947335</v>
+        <v>6.439642963620074</v>
       </c>
       <c r="K22">
-        <v>9.490928157519951</v>
+        <v>9.135963431166454</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>8.938844576189522</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.047380877720133</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>37.17528741612666</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>11.62597666757049</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>37.14417023653442</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>10.87464522857817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>23.18644275574081</v>
+        <v>23.10972675935757</v>
       </c>
       <c r="C23">
-        <v>17.51443665716734</v>
+        <v>17.95155915268059</v>
       </c>
       <c r="D23">
-        <v>5.930512431106375</v>
+        <v>6.15814132846643</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>16.54007816301225</v>
+        <v>15.68699850195391</v>
       </c>
       <c r="G23">
-        <v>19.32136785934391</v>
+        <v>20.92748326387628</v>
       </c>
       <c r="H23">
-        <v>3.051874649650701</v>
+        <v>3.032615825627821</v>
       </c>
       <c r="I23">
-        <v>4.077718794333509</v>
+        <v>3.967964766654743</v>
       </c>
       <c r="J23">
-        <v>7.054240121555116</v>
+        <v>6.722165888104338</v>
       </c>
       <c r="K23">
-        <v>9.575543767926408</v>
+        <v>9.281678841418159</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>9.036234341691204</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.0961953624671</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>36.50121157300731</v>
+        <v>0</v>
       </c>
       <c r="P23">
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>11.56409941391499</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>36.47268646254224</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>10.95313886208982</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.6162863486929</v>
+        <v>21.56149419489449</v>
       </c>
       <c r="C24">
-        <v>16.53824588715236</v>
+        <v>16.95298079056833</v>
       </c>
       <c r="D24">
-        <v>5.572608692975813</v>
+        <v>5.694540735640428</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>15.74278054390886</v>
+        <v>15.36871925032002</v>
       </c>
       <c r="G24">
-        <v>18.22825830603857</v>
+        <v>17.57544688524402</v>
       </c>
       <c r="H24">
-        <v>2.657556393362842</v>
+        <v>2.644380815269292</v>
       </c>
       <c r="I24">
-        <v>3.847216624996171</v>
+        <v>3.771904214151149</v>
       </c>
       <c r="J24">
-        <v>7.049205832499637</v>
+        <v>7.606398527108607</v>
       </c>
       <c r="K24">
-        <v>9.879467100106766</v>
+        <v>9.749605547181423</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>9.38886636237226</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.208832943080669</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>33.84495585516823</v>
+        <v>0</v>
       </c>
       <c r="P24">
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>11.31350567626002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>33.82536785702288</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>11.07741135836513</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.77430701713053</v>
+        <v>19.73832467938054</v>
       </c>
       <c r="C25">
-        <v>15.41917806949114</v>
+        <v>15.67961193273833</v>
       </c>
       <c r="D25">
-        <v>5.158579795559053</v>
+        <v>5.246496549171975</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>14.89333458361028</v>
+        <v>14.65608734126461</v>
       </c>
       <c r="G25">
-        <v>17.06302487305162</v>
+        <v>16.27797707203112</v>
       </c>
       <c r="H25">
-        <v>2.219467151319377</v>
+        <v>2.211286217308938</v>
       </c>
       <c r="I25">
-        <v>3.591480297076005</v>
+        <v>3.545248234198854</v>
       </c>
       <c r="J25">
-        <v>7.062883411859652</v>
+        <v>7.702098628243448</v>
       </c>
       <c r="K25">
-        <v>10.23417660761267</v>
+        <v>10.14320562069718</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>9.730451780875779</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.291933441557028</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>30.7569927907788</v>
+        <v>0</v>
       </c>
       <c r="P25">
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.08085716578686</v>
+        <v>30.74469124646971</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>10.94463672887134</v>
       </c>
     </row>
   </sheetData>
